--- a/VerbConjugation/XLSX/ArmStemmed.xlsx
+++ b/VerbConjugation/XLSX/ArmStemmed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Dialectal kickstarts/Teheran or general Persian Armenian/2021 kickstart /Iranian Armenian archive/iranian_armenian/VerbConjugation/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6959246-E376-C941-9D6E-F218D4B46776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300484D-A880-2D44-A691-FBF6C851428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
+    <workbookView xWindow="9200" yWindow="1600" windowWidth="28040" windowHeight="15760" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1990,147 +1990,21 @@
     <t>negative indicative present perfect 1SG</t>
   </si>
   <si>
-    <t>չեմ {X}ե</t>
-  </si>
-  <si>
-    <t>չեմ {X}ացե</t>
-  </si>
-  <si>
-    <t>չեմ {X}ցե</t>
-  </si>
-  <si>
-    <t>չեմ {X}ցրե</t>
-  </si>
-  <si>
-    <t>չեմ {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չեմ {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չեմ {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative present perfect 2SG</t>
   </si>
   <si>
-    <t>չես {X}ե</t>
-  </si>
-  <si>
-    <t>չես {X}ացե</t>
-  </si>
-  <si>
-    <t>չես {X}ցե</t>
-  </si>
-  <si>
-    <t>չես {X}ցրե</t>
-  </si>
-  <si>
-    <t>չես {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չես {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չես {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative present perfect 3SG</t>
   </si>
   <si>
-    <t>չի {X}ե</t>
-  </si>
-  <si>
-    <t>չի {X}ացե</t>
-  </si>
-  <si>
-    <t>չի {X}ցե</t>
-  </si>
-  <si>
-    <t>չի {X}ցրե</t>
-  </si>
-  <si>
-    <t>չի {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չի {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չի {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative present perfect 1PL</t>
   </si>
   <si>
-    <t>չենք {X}ե</t>
-  </si>
-  <si>
-    <t>չենք {X}ացե</t>
-  </si>
-  <si>
-    <t>չենք {X}ցե</t>
-  </si>
-  <si>
-    <t>չենք {X}ցրե</t>
-  </si>
-  <si>
-    <t>չենք {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չենք {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չենք {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative present perfect 2PL</t>
   </si>
   <si>
-    <t>չէք {X}ե</t>
-  </si>
-  <si>
-    <t>չէք {X}ացե</t>
-  </si>
-  <si>
-    <t>չէք {X}ցե</t>
-  </si>
-  <si>
-    <t>չէք {X}ցրե</t>
-  </si>
-  <si>
-    <t>չէք {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չէք {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չէք {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative present perfect 3PL</t>
   </si>
   <si>
-    <t>չեն {X}ե</t>
-  </si>
-  <si>
-    <t>չեն {X}ացե</t>
-  </si>
-  <si>
-    <t>չեն {X}ցե</t>
-  </si>
-  <si>
-    <t>չեն {X}ցրե</t>
-  </si>
-  <si>
-    <t>չեն {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չեն {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չեն {Xpst}ձե</t>
-  </si>
-  <si>
     <t>indicative pluperfect 1SG</t>
   </si>
   <si>
@@ -2215,147 +2089,21 @@
     <t>negative indicative pluperfect 1SG</t>
   </si>
   <si>
-    <t>չիմ {X}ե</t>
-  </si>
-  <si>
-    <t>չիմ {X}ացե</t>
-  </si>
-  <si>
-    <t>չիմ {X}ցե</t>
-  </si>
-  <si>
-    <t>չիմ {X}ցրե</t>
-  </si>
-  <si>
-    <t>չիմ {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չիմ {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չիմ {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative pluperfect 2SG</t>
   </si>
   <si>
-    <t>չիր {X}ե</t>
-  </si>
-  <si>
-    <t>չիր {X}ացե</t>
-  </si>
-  <si>
-    <t>չիր {X}ցե</t>
-  </si>
-  <si>
-    <t>չիր {X}ցրե</t>
-  </si>
-  <si>
-    <t>չիր {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չիր {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չիր {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative pluperfect 3SG</t>
   </si>
   <si>
-    <t>չէր {X}ե</t>
-  </si>
-  <si>
-    <t>չէր {X}ացե</t>
-  </si>
-  <si>
-    <t>չէր {X}ցե</t>
-  </si>
-  <si>
-    <t>չէր {X}ցրե</t>
-  </si>
-  <si>
-    <t>չէր {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չէր {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չէր {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative pluperfect 1PL</t>
   </si>
   <si>
-    <t>չինք {X}ե</t>
-  </si>
-  <si>
-    <t>չինք {X}ացե</t>
-  </si>
-  <si>
-    <t>չինք {X}ցե</t>
-  </si>
-  <si>
-    <t>չինք {X}ցրե</t>
-  </si>
-  <si>
-    <t>չինք {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չինք {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չինք {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative pluperfect 2PL</t>
   </si>
   <si>
-    <t>չիք {X}ե</t>
-  </si>
-  <si>
-    <t>չիք {X}ացե</t>
-  </si>
-  <si>
-    <t>չիք {X}ցե</t>
-  </si>
-  <si>
-    <t>չիք {X}ցրե</t>
-  </si>
-  <si>
-    <t>չիք {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չիք {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չիք {Xpst}ձե</t>
-  </si>
-  <si>
     <t>negative indicative pluperfect 3PL</t>
   </si>
   <si>
-    <t>չին {X}ե</t>
-  </si>
-  <si>
-    <t>չին {X}ացե</t>
-  </si>
-  <si>
-    <t>չին {X}ցե</t>
-  </si>
-  <si>
-    <t>չին {X}ցրե</t>
-  </si>
-  <si>
-    <t>չին {Xpst}ե</t>
-  </si>
-  <si>
-    <t>չին {Xpst}ացե</t>
-  </si>
-  <si>
-    <t>չին {Xpst}ձե</t>
-  </si>
-  <si>
     <t>aorist 1SG</t>
   </si>
   <si>
@@ -4118,6 +3866,258 @@
   </si>
   <si>
     <t>մի {Xpst}ձէք</t>
+  </si>
+  <si>
+    <t>չես {X}է</t>
+  </si>
+  <si>
+    <t>չես {Xpst}է</t>
+  </si>
+  <si>
+    <t>չի {X}է</t>
+  </si>
+  <si>
+    <t>չի {Xpst}է</t>
+  </si>
+  <si>
+    <t>չենք {X}է</t>
+  </si>
+  <si>
+    <t>չենք {Xpst}է</t>
+  </si>
+  <si>
+    <t>չէք {X}է</t>
+  </si>
+  <si>
+    <t>չէք {Xpst}է</t>
+  </si>
+  <si>
+    <t>չեն {X}է</t>
+  </si>
+  <si>
+    <t>չեն {Xpst}է</t>
+  </si>
+  <si>
+    <t>չեմ {X}է</t>
+  </si>
+  <si>
+    <t>չեմ {Xpst}է</t>
+  </si>
+  <si>
+    <t>չիմ {X}է</t>
+  </si>
+  <si>
+    <t>չիմ {Xpst}է</t>
+  </si>
+  <si>
+    <t>չիր {X}է</t>
+  </si>
+  <si>
+    <t>չիր {Xpst}է</t>
+  </si>
+  <si>
+    <t>չէր {X}է</t>
+  </si>
+  <si>
+    <t>չէր {Xpst}է</t>
+  </si>
+  <si>
+    <t>չինք {X}է</t>
+  </si>
+  <si>
+    <t>չինք {Xpst}է</t>
+  </si>
+  <si>
+    <t>չիք {X}է</t>
+  </si>
+  <si>
+    <t>չիք {Xpst}է</t>
+  </si>
+  <si>
+    <t>չին {X}է</t>
+  </si>
+  <si>
+    <t>չին {Xpst}է</t>
+  </si>
+  <si>
+    <t>չես {X}ացէ</t>
+  </si>
+  <si>
+    <t>չես {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չի {X}ացէ</t>
+  </si>
+  <si>
+    <t>չի {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չենք {X}ացէ</t>
+  </si>
+  <si>
+    <t>չենք {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չէք {X}ացէ</t>
+  </si>
+  <si>
+    <t>չէք {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չեն {X}ացէ</t>
+  </si>
+  <si>
+    <t>չեն {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չեմ {X}ացէ</t>
+  </si>
+  <si>
+    <t>չեմ {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չիմ {X}ացէ</t>
+  </si>
+  <si>
+    <t>չիմ {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չիր {X}ացէ</t>
+  </si>
+  <si>
+    <t>չիր {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չէր {X}ացէ</t>
+  </si>
+  <si>
+    <t>չէր {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չինք {X}ացէ</t>
+  </si>
+  <si>
+    <t>չինք {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չիք {X}ացէ</t>
+  </si>
+  <si>
+    <t>չիք {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չին {X}ացէ</t>
+  </si>
+  <si>
+    <t>չին {Xpst}ացէ</t>
+  </si>
+  <si>
+    <t>չես {X}ցէ</t>
+  </si>
+  <si>
+    <t>չի {X}ցէ</t>
+  </si>
+  <si>
+    <t>չենք {X}ցէ</t>
+  </si>
+  <si>
+    <t>չէք {X}ցէ</t>
+  </si>
+  <si>
+    <t>չեն {X}ցէ</t>
+  </si>
+  <si>
+    <t>չեմ {X}ցէ</t>
+  </si>
+  <si>
+    <t>չիմ {X}ցէ</t>
+  </si>
+  <si>
+    <t>չիր {X}ցէ</t>
+  </si>
+  <si>
+    <t>չէր {X}ցէ</t>
+  </si>
+  <si>
+    <t>չինք {X}ցէ</t>
+  </si>
+  <si>
+    <t>չիք {X}ցէ</t>
+  </si>
+  <si>
+    <t>չին {X}ցէ</t>
+  </si>
+  <si>
+    <t>չես {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չի {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չենք {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չէք {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չեն {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չեմ {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չիմ {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չիր {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չէր {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չինք {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չիք {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չին {X}ցրէ</t>
+  </si>
+  <si>
+    <t>չես {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չի {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չենք {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չէք {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չեն {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չեմ {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չիմ {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չիր {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չէր {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չինք {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չիք {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>չին {Xpst}ձէ</t>
   </si>
 </sst>
 </file>
@@ -4478,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813AD7CC-5CCE-0E48-8BF9-C55A8D719B93}">
   <dimension ref="A1:AC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AC152"/>
+    <sheetView tabSelected="1" topLeftCell="P134" workbookViewId="0">
+      <selection activeCell="W146" sqref="W146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8010,19 +8010,19 @@
         <v>393</v>
       </c>
       <c r="W41" s="1"/>
-      <c r="X41" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="Y41" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8094,19 +8094,19 @@
         <v>402</v>
       </c>
       <c r="W42" s="1"/>
-      <c r="X42" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="Y42" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z42" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA42" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AC42" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8263,19 +8263,19 @@
         <v>420</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="X44" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="Y44" s="1" t="s">
         <v>414</v>
       </c>
       <c r="Z44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA44" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AB44" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8347,19 +8347,19 @@
         <v>429</v>
       </c>
       <c r="W45" s="1"/>
-      <c r="X45" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="Y45" s="1" t="s">
         <v>423</v>
       </c>
       <c r="Z45" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA45" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8431,19 +8431,19 @@
         <v>438</v>
       </c>
       <c r="W46" s="1"/>
-      <c r="X46" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="Y46" s="1" t="s">
         <v>432</v>
       </c>
       <c r="Z46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA46" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AC46" s="1" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8515,19 +8515,19 @@
         <v>447</v>
       </c>
       <c r="W47" s="1"/>
-      <c r="X47" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="Y47" s="1" t="s">
         <v>441</v>
       </c>
       <c r="Z47" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA47" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AB47" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AC47" s="1" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8599,23 +8599,23 @@
         <v>456</v>
       </c>
       <c r="W48" s="1"/>
-      <c r="X48" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="Y48" s="1" t="s">
         <v>450</v>
       </c>
       <c r="Z48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA48" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AB48" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>458</v>
       </c>
@@ -8683,23 +8683,23 @@
         <v>465</v>
       </c>
       <c r="W49" s="1"/>
-      <c r="X49" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="Y49" s="1" t="s">
         <v>459</v>
       </c>
       <c r="Z49" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA49" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>467</v>
       </c>
@@ -8767,23 +8767,23 @@
         <v>474</v>
       </c>
       <c r="W50" s="1"/>
-      <c r="X50" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="Y50" s="1" t="s">
         <v>468</v>
       </c>
       <c r="Z50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AB50" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
@@ -8851,23 +8851,23 @@
         <v>483</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="X51" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="Y51" s="1" t="s">
         <v>477</v>
       </c>
       <c r="Z51" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA51" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>485</v>
       </c>
@@ -8935,23 +8935,23 @@
         <v>492</v>
       </c>
       <c r="W52" s="1"/>
-      <c r="X52" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="Y52" s="1" t="s">
         <v>486</v>
       </c>
       <c r="Z52" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA52" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>494</v>
       </c>
@@ -9019,23 +9019,23 @@
         <v>501</v>
       </c>
       <c r="W53" s="1"/>
-      <c r="X53" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="Y53" s="1" t="s">
         <v>495</v>
       </c>
       <c r="Z53" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA53" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AA53" s="1" t="s">
+      <c r="AB53" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AC53" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>503</v>
       </c>
@@ -9103,23 +9103,23 @@
         <v>510</v>
       </c>
       <c r="W54" s="1"/>
-      <c r="X54" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="Y54" s="1" t="s">
         <v>504</v>
       </c>
       <c r="Z54" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA54" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AB54" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>512</v>
       </c>
@@ -9187,23 +9187,23 @@
         <v>519</v>
       </c>
       <c r="W55" s="1"/>
-      <c r="X55" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="Y55" s="1" t="s">
         <v>513</v>
       </c>
       <c r="Z55" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA55" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AB55" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AC55" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>521</v>
       </c>
@@ -9271,23 +9271,23 @@
         <v>528</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="X56" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="Y56" s="1" t="s">
         <v>522</v>
       </c>
       <c r="Z56" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA56" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>530</v>
       </c>
@@ -9355,23 +9355,23 @@
         <v>537</v>
       </c>
       <c r="W57" s="1"/>
-      <c r="X57" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="Y57" s="1" t="s">
         <v>531</v>
       </c>
       <c r="Z57" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA57" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>539</v>
       </c>
@@ -9439,23 +9439,23 @@
         <v>546</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="X58" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="Y58" s="1" t="s">
         <v>540</v>
       </c>
       <c r="Z58" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA58" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AB58" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>548</v>
       </c>
@@ -9523,23 +9523,23 @@
         <v>555</v>
       </c>
       <c r="W59" s="1"/>
-      <c r="X59" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="Y59" s="1" t="s">
         <v>549</v>
       </c>
       <c r="Z59" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA59" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>557</v>
       </c>
@@ -9607,23 +9607,23 @@
         <v>564</v>
       </c>
       <c r="W60" s="1"/>
-      <c r="X60" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="Y60" s="1" t="s">
         <v>558</v>
       </c>
       <c r="Z60" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA60" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>566</v>
       </c>
@@ -9691,23 +9691,23 @@
         <v>573</v>
       </c>
       <c r="W61" s="1"/>
-      <c r="X61" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="Y61" s="1" t="s">
         <v>567</v>
       </c>
       <c r="Z61" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA61" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>575</v>
       </c>
@@ -9775,23 +9775,23 @@
         <v>582</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="X62" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="Y62" s="1" t="s">
         <v>576</v>
       </c>
       <c r="Z62" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA62" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>584</v>
       </c>
@@ -9859,23 +9859,23 @@
         <v>591</v>
       </c>
       <c r="W63" s="1"/>
-      <c r="X63" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="Y63" s="1" t="s">
         <v>585</v>
       </c>
       <c r="Z63" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA63" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>593</v>
       </c>
@@ -9943,19 +9943,19 @@
         <v>600</v>
       </c>
       <c r="W64" s="1"/>
-      <c r="X64" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="Y64" s="1" t="s">
         <v>594</v>
       </c>
       <c r="Z64" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10027,19 +10027,19 @@
         <v>607</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="X65" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="Y65" s="1" t="s">
         <v>603</v>
       </c>
       <c r="Z65" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA65" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10111,19 +10111,19 @@
         <v>615</v>
       </c>
       <c r="W66" s="1"/>
-      <c r="X66" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="Y66" s="1" t="s">
         <v>611</v>
       </c>
       <c r="Z66" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA66" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -10195,19 +10195,19 @@
         <v>623</v>
       </c>
       <c r="W67" s="1"/>
-      <c r="X67" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="Y67" s="1" t="s">
         <v>619</v>
       </c>
       <c r="Z67" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA67" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10279,19 +10279,19 @@
         <v>631</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="X68" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="Y68" s="1" t="s">
         <v>627</v>
       </c>
       <c r="Z68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA68" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AB68" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
         <v>627</v>
       </c>
     </row>
@@ -10363,19 +10363,19 @@
         <v>639</v>
       </c>
       <c r="W69" s="1"/>
-      <c r="X69" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Y69" s="1" t="s">
         <v>635</v>
       </c>
       <c r="Z69" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA69" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AB69" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10447,19 +10447,19 @@
         <v>647</v>
       </c>
       <c r="W70" s="1"/>
-      <c r="X70" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="Y70" s="1" t="s">
         <v>643</v>
       </c>
       <c r="Z70" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA70" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AB70" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -10468,766 +10468,766 @@
         <v>650</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>652</v>
+        <v>1311</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>653</v>
+        <v>1330</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>653</v>
+        <v>1330</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>654</v>
+        <v>1342</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>654</v>
+        <v>1342</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>656</v>
+        <v>1312</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>655</v>
+        <v>1288</v>
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>657</v>
+        <v>1354</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>653</v>
+        <v>1330</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>651</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>660</v>
+        <v>1301</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>661</v>
+        <v>1325</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>661</v>
+        <v>1325</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>662</v>
+        <v>1337</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>662</v>
+        <v>1337</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>664</v>
+        <v>1302</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>663</v>
+        <v>1278</v>
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>665</v>
+        <v>1349</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>661</v>
+        <v>1325</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>659</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>668</v>
+        <v>1303</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>669</v>
+        <v>1326</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>669</v>
+        <v>1326</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>670</v>
+        <v>1338</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>670</v>
+        <v>1338</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>672</v>
+        <v>1304</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>671</v>
+        <v>1280</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>673</v>
+        <v>1350</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>669</v>
+        <v>1326</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>667</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>676</v>
+        <v>1305</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>677</v>
+        <v>1327</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>677</v>
+        <v>1327</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>678</v>
+        <v>1339</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>678</v>
+        <v>1339</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>680</v>
+        <v>1306</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>679</v>
+        <v>1282</v>
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>681</v>
+        <v>1351</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>677</v>
+        <v>1327</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>675</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>684</v>
+        <v>1307</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>685</v>
+        <v>1328</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>685</v>
+        <v>1328</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>686</v>
+        <v>1340</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>686</v>
+        <v>1340</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>688</v>
+        <v>1308</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>687</v>
+        <v>1284</v>
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>689</v>
+        <v>1352</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>685</v>
+        <v>1328</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>683</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>692</v>
+        <v>1309</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>693</v>
+        <v>1329</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>693</v>
+        <v>1329</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>694</v>
+        <v>1341</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>694</v>
+        <v>1341</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>696</v>
+        <v>1310</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>695</v>
+        <v>1286</v>
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>697</v>
+        <v>1353</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>693</v>
+        <v>1329</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>691</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="W77" s="1"/>
-      <c r="X77" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="Y77" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>699</v>
+        <v>659</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="W78" s="1"/>
-      <c r="X78" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="Y78" s="1" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>707</v>
+        <v>667</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="W79" s="1"/>
-      <c r="X79" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="Y79" s="1" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>717</v>
+        <v>679</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>715</v>
+        <v>675</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>627</v>
@@ -11293,25 +11293,25 @@
         <v>631</v>
       </c>
       <c r="W80" s="1"/>
-      <c r="X80" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="Y80" s="1" t="s">
         <v>627</v>
       </c>
       <c r="Z80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA80" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AA80" s="1" t="s">
+      <c r="AB80" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>635</v>
@@ -11377,25 +11377,25 @@
         <v>639</v>
       </c>
       <c r="W81" s="1"/>
-      <c r="X81" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Y81" s="1" t="s">
         <v>635</v>
       </c>
       <c r="Z81" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA81" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AB81" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>643</v>
@@ -11461,535 +11461,535 @@
         <v>647</v>
       </c>
       <c r="W82" s="1"/>
-      <c r="X82" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="Y82" s="1" t="s">
         <v>643</v>
       </c>
       <c r="Z82" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA82" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AB82" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>727</v>
+        <v>1313</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>728</v>
+        <v>1331</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>728</v>
+        <v>1331</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>729</v>
+        <v>1343</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>729</v>
+        <v>1343</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>731</v>
+        <v>1314</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>730</v>
+        <v>1290</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>732</v>
+        <v>1355</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>728</v>
+        <v>1331</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>726</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>735</v>
+        <v>1315</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>736</v>
+        <v>1332</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>736</v>
+        <v>1332</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>737</v>
+        <v>1344</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>737</v>
+        <v>1344</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>739</v>
+        <v>1316</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>738</v>
+        <v>1292</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>740</v>
+        <v>1356</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>736</v>
+        <v>1332</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>734</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>743</v>
+        <v>1317</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>744</v>
+        <v>1333</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>744</v>
+        <v>1333</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>745</v>
+        <v>1345</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>745</v>
+        <v>1345</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>747</v>
+        <v>1318</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>746</v>
+        <v>1294</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>748</v>
+        <v>1357</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>744</v>
+        <v>1333</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>742</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>749</v>
+        <v>686</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>751</v>
+        <v>1319</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>752</v>
+        <v>1334</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>752</v>
+        <v>1334</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>753</v>
+        <v>1346</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>753</v>
+        <v>1346</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>755</v>
+        <v>1320</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>754</v>
+        <v>1296</v>
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>756</v>
+        <v>1358</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>752</v>
+        <v>1334</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>750</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>759</v>
+        <v>1321</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>760</v>
+        <v>1335</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>760</v>
+        <v>1335</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>761</v>
+        <v>1347</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>761</v>
+        <v>1347</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>763</v>
+        <v>1322</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>764</v>
+        <v>1359</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>760</v>
+        <v>1335</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>758</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>767</v>
+        <v>1323</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>768</v>
+        <v>1336</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>768</v>
+        <v>1336</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>769</v>
+        <v>1348</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>769</v>
+        <v>1348</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>771</v>
+        <v>1324</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>772</v>
+        <v>1360</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>768</v>
+        <v>1336</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>766</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>773</v>
+        <v>689</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>182</v>
@@ -11998,19 +11998,19 @@
         <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>774</v>
+        <v>690</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>775</v>
+        <v>691</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>775</v>
+        <v>691</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>776</v>
+        <v>692</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>776</v>
+        <v>692</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>182</v>
@@ -12034,25 +12034,25 @@
         <v>182</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>778</v>
+        <v>694</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
@@ -12063,10 +12063,10 @@
         <v>182</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>779</v>
+        <v>695</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>780</v>
+        <v>696</v>
       </c>
       <c r="AC89" s="1" t="s">
         <v>182</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>781</v>
+        <v>697</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>306</v>
@@ -12083,19 +12083,19 @@
         <v>306</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>782</v>
+        <v>698</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>783</v>
+        <v>699</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>783</v>
+        <v>699</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>784</v>
+        <v>700</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>784</v>
+        <v>700</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>306</v>
@@ -12119,25 +12119,25 @@
         <v>306</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>786</v>
+        <v>702</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>785</v>
+        <v>701</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
@@ -12148,10 +12148,10 @@
         <v>306</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>787</v>
+        <v>703</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>788</v>
+        <v>704</v>
       </c>
       <c r="AC90" s="1" t="s">
         <v>306</v>
@@ -12159,92 +12159,92 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>789</v>
+        <v>705</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>791</v>
+        <v>707</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>792</v>
+        <v>708</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>792</v>
+        <v>708</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>795</v>
+        <v>711</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>796</v>
+        <v>712</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>797</v>
+        <v>713</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>798</v>
+        <v>714</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>207</v>
@@ -12253,19 +12253,19 @@
         <v>207</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>799</v>
+        <v>715</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>801</v>
+        <v>717</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>207</v>
@@ -12289,25 +12289,25 @@
         <v>207</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>803</v>
+        <v>719</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>802</v>
+        <v>718</v>
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
@@ -12318,10 +12318,10 @@
         <v>207</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>804</v>
+        <v>720</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>805</v>
+        <v>721</v>
       </c>
       <c r="AC92" s="1" t="s">
         <v>207</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>806</v>
+        <v>722</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>216</v>
@@ -12338,19 +12338,19 @@
         <v>216</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>807</v>
+        <v>723</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>808</v>
+        <v>724</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>808</v>
+        <v>724</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>809</v>
+        <v>725</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>809</v>
+        <v>725</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>216</v>
@@ -12374,25 +12374,25 @@
         <v>216</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>811</v>
+        <v>727</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
@@ -12403,10 +12403,10 @@
         <v>216</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>812</v>
+        <v>728</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>813</v>
+        <v>729</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>216</v>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>814</v>
+        <v>730</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>225</v>
@@ -12423,19 +12423,19 @@
         <v>225</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>815</v>
+        <v>731</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>816</v>
+        <v>732</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>816</v>
+        <v>732</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>817</v>
+        <v>733</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>817</v>
+        <v>733</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>225</v>
@@ -12459,25 +12459,25 @@
         <v>225</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>819</v>
+        <v>735</v>
       </c>
       <c r="U94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>818</v>
+        <v>734</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
@@ -12488,10 +12488,10 @@
         <v>225</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>820</v>
+        <v>736</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>821</v>
+        <v>737</v>
       </c>
       <c r="AC94" s="1" t="s">
         <v>225</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>822</v>
+        <v>738</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>234</v>
@@ -12508,19 +12508,19 @@
         <v>234</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>823</v>
+        <v>739</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>824</v>
+        <v>740</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>824</v>
+        <v>740</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>825</v>
+        <v>741</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>825</v>
+        <v>741</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>234</v>
@@ -12544,25 +12544,25 @@
         <v>234</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>827</v>
+        <v>743</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>826</v>
+        <v>742</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
@@ -12573,10 +12573,10 @@
         <v>234</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>828</v>
+        <v>744</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>829</v>
+        <v>745</v>
       </c>
       <c r="AC95" s="1" t="s">
         <v>234</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>830</v>
+        <v>746</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>358</v>
@@ -12593,19 +12593,19 @@
         <v>358</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>831</v>
+        <v>747</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>358</v>
@@ -12629,25 +12629,25 @@
         <v>358</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>835</v>
+        <v>751</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>834</v>
+        <v>750</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
@@ -12658,10 +12658,10 @@
         <v>358</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>836</v>
+        <v>752</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>837</v>
+        <v>753</v>
       </c>
       <c r="AC96" s="1" t="s">
         <v>358</v>
@@ -12669,92 +12669,92 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>838</v>
+        <v>754</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>840</v>
+        <v>756</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>841</v>
+        <v>757</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>841</v>
+        <v>757</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>842</v>
+        <v>758</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>842</v>
+        <v>758</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>844</v>
+        <v>760</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>845</v>
+        <v>761</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>846</v>
+        <v>762</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>839</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>847</v>
+        <v>763</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>261</v>
@@ -12763,19 +12763,19 @@
         <v>261</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>848</v>
+        <v>764</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>849</v>
+        <v>765</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>849</v>
+        <v>765</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>850</v>
+        <v>766</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>850</v>
+        <v>766</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>261</v>
@@ -12799,25 +12799,25 @@
         <v>261</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>852</v>
+        <v>768</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>851</v>
+        <v>767</v>
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
@@ -12828,10 +12828,10 @@
         <v>261</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>853</v>
+        <v>769</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="AC98" s="1" t="s">
         <v>261</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>270</v>
@@ -12848,19 +12848,19 @@
         <v>270</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>856</v>
+        <v>772</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>857</v>
+        <v>773</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>857</v>
+        <v>773</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>858</v>
+        <v>774</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>858</v>
+        <v>774</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>270</v>
@@ -12884,25 +12884,25 @@
         <v>270</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>860</v>
+        <v>776</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>859</v>
+        <v>775</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
@@ -12913,10 +12913,10 @@
         <v>270</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>861</v>
+        <v>777</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>862</v>
+        <v>778</v>
       </c>
       <c r="AC99" s="1" t="s">
         <v>270</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>863</v>
+        <v>779</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>279</v>
@@ -12933,19 +12933,19 @@
         <v>279</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>864</v>
+        <v>780</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>865</v>
+        <v>781</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>865</v>
+        <v>781</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>279</v>
@@ -12969,25 +12969,25 @@
         <v>279</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>868</v>
+        <v>784</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>867</v>
+        <v>783</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
@@ -12998,10 +12998,10 @@
         <v>279</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>869</v>
+        <v>785</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>870</v>
+        <v>786</v>
       </c>
       <c r="AC100" s="1" t="s">
         <v>279</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>871</v>
+        <v>787</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>183</v>
@@ -13021,58 +13021,58 @@
         <v>182</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>872</v>
+        <v>788</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>872</v>
+        <v>788</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>875</v>
+        <v>791</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>876</v>
+        <v>792</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>876</v>
+        <v>792</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>876</v>
+        <v>792</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
@@ -13083,10 +13083,10 @@
         <v>183</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>877</v>
+        <v>793</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>872</v>
+        <v>788</v>
       </c>
       <c r="AC101" s="1" t="s">
         <v>183</v>
@@ -13094,7 +13094,7 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>878</v>
+        <v>794</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>192</v>
@@ -13106,58 +13106,58 @@
         <v>191</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>879</v>
+        <v>795</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>879</v>
+        <v>795</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>881</v>
+        <v>797</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -13168,10 +13168,10 @@
         <v>192</v>
       </c>
       <c r="AA102" s="1" t="s">
-        <v>884</v>
+        <v>800</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>879</v>
+        <v>795</v>
       </c>
       <c r="AC102" s="1" t="s">
         <v>192</v>
@@ -13179,7 +13179,7 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>885</v>
+        <v>801</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>168</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>208</v>
@@ -13276,58 +13276,58 @@
         <v>207</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>888</v>
+        <v>804</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>889</v>
+        <v>805</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
@@ -13338,10 +13338,10 @@
         <v>208</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>892</v>
+        <v>808</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>887</v>
+        <v>803</v>
       </c>
       <c r="AC104" s="1" t="s">
         <v>208</v>
@@ -13349,92 +13349,92 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>893</v>
+        <v>809</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>896</v>
+        <v>812</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>896</v>
+        <v>812</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>897</v>
+        <v>813</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="Z105" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="AA105" s="1" t="s">
-        <v>900</v>
+        <v>816</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>895</v>
+        <v>811</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>901</v>
+        <v>817</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>226</v>
@@ -13446,58 +13446,58 @@
         <v>225</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>902</v>
+        <v>818</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>902</v>
+        <v>818</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>903</v>
+        <v>819</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>903</v>
+        <v>819</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>905</v>
+        <v>821</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
@@ -13508,10 +13508,10 @@
         <v>226</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>907</v>
+        <v>823</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>902</v>
+        <v>818</v>
       </c>
       <c r="AC106" s="1" t="s">
         <v>226</v>
@@ -13519,7 +13519,7 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>908</v>
+        <v>824</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>235</v>
@@ -13531,58 +13531,58 @@
         <v>234</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>909</v>
+        <v>825</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>909</v>
+        <v>825</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>913</v>
+        <v>829</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>913</v>
+        <v>829</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>913</v>
+        <v>829</v>
       </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
@@ -13593,10 +13593,10 @@
         <v>235</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>914</v>
+        <v>830</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>909</v>
+        <v>825</v>
       </c>
       <c r="AC107" s="1" t="s">
         <v>235</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>915</v>
+        <v>831</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>244</v>
@@ -13616,58 +13616,58 @@
         <v>243</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>917</v>
+        <v>833</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>917</v>
+        <v>833</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>919</v>
+        <v>835</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>919</v>
+        <v>835</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>919</v>
+        <v>835</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>919</v>
+        <v>835</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
@@ -13678,10 +13678,10 @@
         <v>244</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="AC108" s="1" t="s">
         <v>244</v>
@@ -13689,7 +13689,7 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>922</v>
+        <v>838</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>253</v>
@@ -13701,58 +13701,58 @@
         <v>252</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>923</v>
+        <v>839</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>923</v>
+        <v>839</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>925</v>
+        <v>841</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>926</v>
+        <v>842</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>926</v>
+        <v>842</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>926</v>
+        <v>842</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>926</v>
+        <v>842</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>927</v>
+        <v>843</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>927</v>
+        <v>843</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>927</v>
+        <v>843</v>
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
@@ -13763,10 +13763,10 @@
         <v>253</v>
       </c>
       <c r="AA109" s="1" t="s">
-        <v>928</v>
+        <v>844</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>923</v>
+        <v>839</v>
       </c>
       <c r="AC109" s="1" t="s">
         <v>253</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>929</v>
+        <v>845</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>262</v>
@@ -13786,58 +13786,58 @@
         <v>261</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>930</v>
+        <v>846</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>930</v>
+        <v>846</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>931</v>
+        <v>847</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>931</v>
+        <v>847</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>932</v>
+        <v>848</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>933</v>
+        <v>849</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>933</v>
+        <v>849</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>933</v>
+        <v>849</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>933</v>
+        <v>849</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>934</v>
+        <v>850</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>934</v>
+        <v>850</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>934</v>
+        <v>850</v>
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
@@ -13848,10 +13848,10 @@
         <v>262</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>935</v>
+        <v>851</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>930</v>
+        <v>846</v>
       </c>
       <c r="AC110" s="1" t="s">
         <v>262</v>
@@ -13859,92 +13859,92 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>936</v>
+        <v>852</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>938</v>
+        <v>854</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>938</v>
+        <v>854</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>939</v>
+        <v>855</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>939</v>
+        <v>855</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>940</v>
+        <v>856</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>941</v>
+        <v>857</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>941</v>
+        <v>857</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>941</v>
+        <v>857</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>941</v>
+        <v>857</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>942</v>
+        <v>858</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>942</v>
+        <v>858</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>942</v>
+        <v>858</v>
       </c>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
       </c>
       <c r="AA111" s="1" t="s">
-        <v>943</v>
+        <v>859</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>938</v>
+        <v>854</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>937</v>
+        <v>853</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>944</v>
+        <v>860</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>280</v>
@@ -13956,58 +13956,58 @@
         <v>279</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>945</v>
+        <v>861</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>945</v>
+        <v>861</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>946</v>
+        <v>862</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>946</v>
+        <v>862</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>947</v>
+        <v>863</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>948</v>
+        <v>864</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>948</v>
+        <v>864</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>948</v>
+        <v>864</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>948</v>
+        <v>864</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>949</v>
+        <v>865</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>949</v>
+        <v>865</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>949</v>
+        <v>865</v>
       </c>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
@@ -14018,10 +14018,10 @@
         <v>280</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>950</v>
+        <v>866</v>
       </c>
       <c r="AB112" s="1" t="s">
-        <v>945</v>
+        <v>861</v>
       </c>
       <c r="AC112" s="1" t="s">
         <v>280</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>951</v>
+        <v>867</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>289</v>
@@ -14041,58 +14041,58 @@
         <v>288</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>952</v>
+        <v>868</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>952</v>
+        <v>868</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>953</v>
+        <v>869</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>953</v>
+        <v>869</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>954</v>
+        <v>870</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>955</v>
+        <v>871</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>955</v>
+        <v>871</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>955</v>
+        <v>871</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>955</v>
+        <v>871</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>956</v>
+        <v>872</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>956</v>
+        <v>872</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>956</v>
+        <v>872</v>
       </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
@@ -14103,10 +14103,10 @@
         <v>289</v>
       </c>
       <c r="AA113" s="1" t="s">
-        <v>957</v>
+        <v>873</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>952</v>
+        <v>868</v>
       </c>
       <c r="AC113" s="1" t="s">
         <v>289</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>958</v>
+        <v>874</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>298</v>
@@ -14126,58 +14126,58 @@
         <v>297</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>959</v>
+        <v>875</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>959</v>
+        <v>875</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>960</v>
+        <v>876</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>961</v>
+        <v>877</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>962</v>
+        <v>878</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>962</v>
+        <v>878</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>962</v>
+        <v>878</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>962</v>
+        <v>878</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>963</v>
+        <v>879</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>963</v>
+        <v>879</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>963</v>
+        <v>879</v>
       </c>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
@@ -14188,10 +14188,10 @@
         <v>298</v>
       </c>
       <c r="AA114" s="1" t="s">
-        <v>964</v>
+        <v>880</v>
       </c>
       <c r="AB114" s="1" t="s">
-        <v>959</v>
+        <v>875</v>
       </c>
       <c r="AC114" s="1" t="s">
         <v>298</v>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>965</v>
+        <v>881</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>307</v>
@@ -14211,58 +14211,58 @@
         <v>306</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>968</v>
+        <v>884</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>969</v>
+        <v>885</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
@@ -14273,10 +14273,10 @@
         <v>307</v>
       </c>
       <c r="AA115" s="1" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="AC115" s="1" t="s">
         <v>307</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>972</v>
+        <v>888</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>316</v>
@@ -14296,58 +14296,58 @@
         <v>315</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>974</v>
+        <v>890</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>974</v>
+        <v>890</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>977</v>
+        <v>893</v>
       </c>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
@@ -14358,10 +14358,10 @@
         <v>316</v>
       </c>
       <c r="AA116" s="1" t="s">
-        <v>978</v>
+        <v>894</v>
       </c>
       <c r="AB116" s="1" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
       <c r="AC116" s="1" t="s">
         <v>316</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>979</v>
+        <v>895</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>325</v>
@@ -14381,58 +14381,58 @@
         <v>324</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>980</v>
+        <v>896</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>980</v>
+        <v>896</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>981</v>
+        <v>897</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>981</v>
+        <v>897</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>982</v>
+        <v>898</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>983</v>
+        <v>899</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>984</v>
+        <v>900</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>984</v>
+        <v>900</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>984</v>
+        <v>900</v>
       </c>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
@@ -14443,10 +14443,10 @@
         <v>325</v>
       </c>
       <c r="AA117" s="1" t="s">
-        <v>985</v>
+        <v>901</v>
       </c>
       <c r="AB117" s="1" t="s">
-        <v>980</v>
+        <v>896</v>
       </c>
       <c r="AC117" s="1" t="s">
         <v>325</v>
@@ -14454,92 +14454,92 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>986</v>
+        <v>902</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>988</v>
+        <v>904</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>990</v>
+        <v>906</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>990</v>
+        <v>906</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>991</v>
+        <v>907</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>992</v>
+        <v>908</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>993</v>
+        <v>909</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>993</v>
+        <v>909</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>993</v>
+        <v>909</v>
       </c>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
       <c r="Y118" s="1" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="Z118" s="1" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
       <c r="AA118" s="1" t="s">
-        <v>994</v>
+        <v>910</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>989</v>
+        <v>905</v>
       </c>
       <c r="AC118" s="1" t="s">
-        <v>987</v>
+        <v>903</v>
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>995</v>
+        <v>911</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>341</v>
@@ -14551,58 +14551,58 @@
         <v>340</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
@@ -14613,10 +14613,10 @@
         <v>341</v>
       </c>
       <c r="AA119" s="1" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
       <c r="AB119" s="1" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="AC119" s="1" t="s">
         <v>341</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>350</v>
@@ -14636,58 +14636,58 @@
         <v>349</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
@@ -14698,10 +14698,10 @@
         <v>350</v>
       </c>
       <c r="AA120" s="1" t="s">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="AB120" s="1" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
       <c r="AC120" s="1" t="s">
         <v>350</v>
@@ -14709,7 +14709,7 @@
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1009</v>
+        <v>925</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>359</v>
@@ -14721,58 +14721,58 @@
         <v>358</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1011</v>
+        <v>927</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1011</v>
+        <v>927</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
@@ -14783,10 +14783,10 @@
         <v>359</v>
       </c>
       <c r="AA121" s="1" t="s">
-        <v>1015</v>
+        <v>931</v>
       </c>
       <c r="AB121" s="1" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="AC121" s="1" t="s">
         <v>359</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>368</v>
@@ -14806,58 +14806,58 @@
         <v>367</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1018</v>
+        <v>934</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>1018</v>
+        <v>934</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>1019</v>
+        <v>935</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>1021</v>
+        <v>937</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>1021</v>
+        <v>937</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>1021</v>
+        <v>937</v>
       </c>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
@@ -14868,10 +14868,10 @@
         <v>368</v>
       </c>
       <c r="AA122" s="1" t="s">
-        <v>1022</v>
+        <v>938</v>
       </c>
       <c r="AB122" s="1" t="s">
-        <v>1017</v>
+        <v>933</v>
       </c>
       <c r="AC122" s="1" t="s">
         <v>368</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1023</v>
+        <v>939</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>377</v>
@@ -14891,58 +14891,58 @@
         <v>376</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1024</v>
+        <v>940</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1024</v>
+        <v>940</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
@@ -14953,10 +14953,10 @@
         <v>377</v>
       </c>
       <c r="AA123" s="1" t="s">
-        <v>1029</v>
+        <v>945</v>
       </c>
       <c r="AB123" s="1" t="s">
-        <v>1024</v>
+        <v>940</v>
       </c>
       <c r="AC123" s="1" t="s">
         <v>377</v>
@@ -14964,2124 +14964,2124 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1030</v>
+        <v>946</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1032</v>
+        <v>948</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1033</v>
+        <v>949</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1033</v>
+        <v>949</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1034</v>
+        <v>950</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1034</v>
+        <v>950</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>1035</v>
+        <v>951</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>1036</v>
+        <v>952</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>1036</v>
+        <v>952</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>1036</v>
+        <v>952</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>1036</v>
+        <v>952</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>1037</v>
+        <v>953</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>1037</v>
+        <v>953</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>1037</v>
+        <v>953</v>
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
       <c r="Y124" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="Z124" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="AA124" s="1" t="s">
-        <v>1038</v>
+        <v>954</v>
       </c>
       <c r="AB124" s="1" t="s">
-        <v>1033</v>
+        <v>949</v>
       </c>
       <c r="AC124" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1039</v>
+        <v>955</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1040</v>
+        <v>956</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1041</v>
+        <v>957</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1042</v>
+        <v>958</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1043</v>
+        <v>959</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1044</v>
+        <v>960</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1045</v>
+        <v>961</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>1046</v>
+        <v>962</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>1048</v>
+        <v>964</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>1048</v>
+        <v>964</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1048</v>
+        <v>964</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>1049</v>
+        <v>965</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>1049</v>
+        <v>965</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>1050</v>
+        <v>966</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>1050</v>
+        <v>966</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>1051</v>
+        <v>967</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
       <c r="Y125" s="1" t="s">
-        <v>1040</v>
+        <v>956</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>1041</v>
+        <v>957</v>
       </c>
       <c r="AA125" s="1" t="s">
-        <v>1053</v>
+        <v>969</v>
       </c>
       <c r="AB125" s="1" t="s">
-        <v>1043</v>
+        <v>959</v>
       </c>
       <c r="AC125" s="1" t="s">
-        <v>1040</v>
+        <v>956</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1054</v>
+        <v>970</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1055</v>
+        <v>971</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1056</v>
+        <v>972</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1057</v>
+        <v>973</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1058</v>
+        <v>974</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1059</v>
+        <v>975</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1060</v>
+        <v>976</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1061</v>
+        <v>977</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1062</v>
+        <v>978</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1063</v>
+        <v>979</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1062</v>
+        <v>978</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>1063</v>
+        <v>979</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1062</v>
+        <v>978</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1063</v>
+        <v>979</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1062</v>
+        <v>978</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>1064</v>
+        <v>980</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>1064</v>
+        <v>980</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>1065</v>
+        <v>981</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>1065</v>
+        <v>981</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>1066</v>
+        <v>982</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>1067</v>
+        <v>983</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>1067</v>
+        <v>983</v>
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1" t="s">
-        <v>1055</v>
+        <v>971</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>1056</v>
+        <v>972</v>
       </c>
       <c r="AA126" s="1" t="s">
-        <v>1068</v>
+        <v>984</v>
       </c>
       <c r="AB126" s="1" t="s">
-        <v>1058</v>
+        <v>974</v>
       </c>
       <c r="AC126" s="1" t="s">
-        <v>1055</v>
+        <v>971</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1069</v>
+        <v>985</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1070</v>
+        <v>986</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1071</v>
+        <v>987</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1072</v>
+        <v>988</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1073</v>
+        <v>989</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1074</v>
+        <v>990</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1075</v>
+        <v>991</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1076</v>
+        <v>992</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1077</v>
+        <v>993</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1078</v>
+        <v>994</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1077</v>
+        <v>993</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>1078</v>
+        <v>994</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1077</v>
+        <v>993</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1078</v>
+        <v>994</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1077</v>
+        <v>993</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>1079</v>
+        <v>995</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>1079</v>
+        <v>995</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>1080</v>
+        <v>996</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>1080</v>
+        <v>996</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>1081</v>
+        <v>997</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>1082</v>
+        <v>998</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>1082</v>
+        <v>998</v>
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
       <c r="Y127" s="1" t="s">
-        <v>1070</v>
+        <v>986</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>1071</v>
+        <v>987</v>
       </c>
       <c r="AA127" s="1" t="s">
-        <v>1083</v>
+        <v>999</v>
       </c>
       <c r="AB127" s="1" t="s">
-        <v>1073</v>
+        <v>989</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>1070</v>
+        <v>986</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1084</v>
+        <v>1000</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1085</v>
+        <v>1001</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1086</v>
+        <v>1002</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1087</v>
+        <v>1003</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1088</v>
+        <v>1004</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1089</v>
+        <v>1005</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1090</v>
+        <v>1006</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1091</v>
+        <v>1007</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1092</v>
+        <v>1008</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1093</v>
+        <v>1009</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1092</v>
+        <v>1008</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>1093</v>
+        <v>1009</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1092</v>
+        <v>1008</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1093</v>
+        <v>1009</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1092</v>
+        <v>1008</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>1094</v>
+        <v>1010</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>1094</v>
+        <v>1010</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>1095</v>
+        <v>1011</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1095</v>
+        <v>1011</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1096</v>
+        <v>1012</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>1097</v>
+        <v>1013</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>1097</v>
+        <v>1013</v>
       </c>
       <c r="W128" s="1"/>
-      <c r="X128" s="1" t="s">
-        <v>1085</v>
-      </c>
       <c r="Y128" s="1" t="s">
-        <v>1086</v>
+        <v>1001</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>1098</v>
+        <v>1002</v>
       </c>
       <c r="AA128" s="1" t="s">
-        <v>1088</v>
+        <v>1014</v>
       </c>
       <c r="AB128" s="1" t="s">
-        <v>1085</v>
+        <v>1004</v>
+      </c>
+      <c r="AC128" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1099</v>
+        <v>1015</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1100</v>
+        <v>1016</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1101</v>
+        <v>1017</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1102</v>
+        <v>1018</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1103</v>
+        <v>1019</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1104</v>
+        <v>1020</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1105</v>
+        <v>1021</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1106</v>
+        <v>1022</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1107</v>
+        <v>1023</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1108</v>
+        <v>1024</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1107</v>
+        <v>1023</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>1108</v>
+        <v>1024</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1107</v>
+        <v>1023</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1108</v>
+        <v>1024</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1107</v>
+        <v>1023</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1109</v>
+        <v>1025</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1109</v>
+        <v>1025</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>1110</v>
+        <v>1026</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>1110</v>
+        <v>1026</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>1111</v>
+        <v>1027</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>1112</v>
+        <v>1028</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>1112</v>
+        <v>1028</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1" t="s">
-        <v>1100</v>
+        <v>1016</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>1101</v>
+        <v>1017</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>1113</v>
+        <v>1029</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>1103</v>
+        <v>1019</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>1100</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1114</v>
+        <v>1030</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1115</v>
+        <v>1031</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1116</v>
+        <v>1032</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1117</v>
+        <v>1033</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1118</v>
+        <v>1034</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1119</v>
+        <v>1035</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1120</v>
+        <v>1036</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1121</v>
+        <v>1037</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1123</v>
+        <v>1039</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1123</v>
+        <v>1039</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1123</v>
+        <v>1039</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1124</v>
+        <v>1040</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1124</v>
+        <v>1040</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>1125</v>
+        <v>1041</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>1125</v>
+        <v>1041</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1126</v>
+        <v>1042</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>1127</v>
+        <v>1043</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>1127</v>
+        <v>1043</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1" t="s">
-        <v>1115</v>
+        <v>1031</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>1116</v>
+        <v>1032</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>1128</v>
+        <v>1044</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>1118</v>
+        <v>1034</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>1115</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1129</v>
+        <v>1045</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1131</v>
+        <v>1047</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1132</v>
+        <v>1048</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1132</v>
+        <v>1048</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1133</v>
+        <v>1049</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1133</v>
+        <v>1049</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1134</v>
+        <v>1050</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1135</v>
+        <v>1051</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1135</v>
+        <v>1051</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>1135</v>
+        <v>1051</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1135</v>
+        <v>1051</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1136</v>
+        <v>1052</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1136</v>
+        <v>1052</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1136</v>
+        <v>1052</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>1137</v>
+        <v>1053</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>1132</v>
+        <v>1048</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1138</v>
+        <v>1054</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1139</v>
+        <v>1055</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1139</v>
+        <v>1055</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1140</v>
+        <v>1056</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1141</v>
+        <v>1057</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1141</v>
+        <v>1057</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1142</v>
+        <v>1058</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1142</v>
+        <v>1058</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1143</v>
+        <v>1059</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1144</v>
+        <v>1060</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1144</v>
+        <v>1060</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>1144</v>
+        <v>1060</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>1144</v>
+        <v>1060</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1145</v>
+        <v>1061</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>1145</v>
+        <v>1061</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1145</v>
+        <v>1061</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1" t="s">
-        <v>1139</v>
+        <v>1055</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>1139</v>
+        <v>1055</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1146</v>
+        <v>1062</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>1141</v>
+        <v>1057</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>1139</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1147</v>
+        <v>1063</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1149</v>
+        <v>1065</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1150</v>
+        <v>1066</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1150</v>
+        <v>1066</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1151</v>
+        <v>1067</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1151</v>
+        <v>1067</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1153</v>
+        <v>1069</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1153</v>
+        <v>1069</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1153</v>
+        <v>1069</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>1153</v>
+        <v>1069</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1154</v>
+        <v>1070</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1154</v>
+        <v>1070</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>1154</v>
+        <v>1070</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>1155</v>
+        <v>1071</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>1150</v>
+        <v>1066</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1156</v>
+        <v>1072</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1157</v>
+        <v>1073</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1157</v>
+        <v>1073</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1158</v>
+        <v>1074</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1159</v>
+        <v>1075</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1159</v>
+        <v>1075</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1160</v>
+        <v>1076</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1160</v>
+        <v>1076</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1161</v>
+        <v>1077</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1163</v>
+        <v>1079</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1163</v>
+        <v>1079</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>1163</v>
+        <v>1079</v>
       </c>
       <c r="W134" s="1"/>
-      <c r="X134" s="1" t="s">
-        <v>1157</v>
-      </c>
       <c r="Y134" s="1" t="s">
-        <v>1157</v>
+        <v>1073</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>1164</v>
+        <v>1073</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>1159</v>
+        <v>1080</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>1157</v>
+        <v>1075</v>
+      </c>
+      <c r="AC134" s="1" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1165</v>
+        <v>1081</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1166</v>
+        <v>1082</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1166</v>
+        <v>1082</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1167</v>
+        <v>1083</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1168</v>
+        <v>1084</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1168</v>
+        <v>1084</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1169</v>
+        <v>1085</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1169</v>
+        <v>1085</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1170</v>
+        <v>1086</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1171</v>
+        <v>1087</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1171</v>
+        <v>1087</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1171</v>
+        <v>1087</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1171</v>
+        <v>1087</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1172</v>
+        <v>1088</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1172</v>
+        <v>1088</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>1172</v>
+        <v>1088</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1" t="s">
-        <v>1166</v>
+        <v>1082</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>1166</v>
+        <v>1082</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>1173</v>
+        <v>1089</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>1168</v>
+        <v>1084</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>1166</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1174</v>
+        <v>1090</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1175</v>
+        <v>1091</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1175</v>
+        <v>1091</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1176</v>
+        <v>1092</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1177</v>
+        <v>1093</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1177</v>
+        <v>1093</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1178</v>
+        <v>1094</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1178</v>
+        <v>1094</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1179</v>
+        <v>1095</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1180</v>
+        <v>1096</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1180</v>
+        <v>1096</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1180</v>
+        <v>1096</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1180</v>
+        <v>1096</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1181</v>
+        <v>1097</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>1181</v>
+        <v>1097</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>1181</v>
+        <v>1097</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1" t="s">
-        <v>1175</v>
+        <v>1091</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>1175</v>
+        <v>1091</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>1182</v>
+        <v>1098</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>1177</v>
+        <v>1093</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>1175</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1183</v>
+        <v>1099</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1184</v>
+        <v>1100</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1185</v>
+        <v>1101</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1186</v>
+        <v>1102</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1187</v>
+        <v>1103</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1188</v>
+        <v>1104</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1189</v>
+        <v>1105</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1190</v>
+        <v>1106</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1191</v>
+        <v>1107</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1192</v>
+        <v>1108</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1191</v>
+        <v>1107</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1192</v>
+        <v>1108</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1191</v>
+        <v>1107</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1192</v>
+        <v>1108</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1191</v>
+        <v>1107</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1193</v>
+        <v>1109</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1193</v>
+        <v>1109</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>1194</v>
+        <v>1110</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1194</v>
+        <v>1110</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1195</v>
+        <v>1111</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1196</v>
+        <v>1112</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1196</v>
+        <v>1112</v>
       </c>
       <c r="W137" s="1"/>
-      <c r="X137" s="1" t="s">
-        <v>1184</v>
-      </c>
       <c r="Y137" s="1" t="s">
-        <v>1185</v>
+        <v>1100</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>1197</v>
+        <v>1101</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>1187</v>
+        <v>1113</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>1184</v>
+        <v>1103</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1198</v>
+        <v>1114</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1199</v>
+        <v>1115</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1200</v>
+        <v>1116</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1201</v>
+        <v>1117</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1202</v>
+        <v>1118</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1203</v>
+        <v>1119</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1204</v>
+        <v>1120</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1205</v>
+        <v>1121</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1206</v>
+        <v>1122</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1207</v>
+        <v>1123</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1206</v>
+        <v>1122</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1207</v>
+        <v>1123</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1206</v>
+        <v>1122</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1207</v>
+        <v>1123</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1206</v>
+        <v>1122</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1208</v>
+        <v>1124</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1208</v>
+        <v>1124</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1209</v>
+        <v>1125</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1209</v>
+        <v>1125</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1210</v>
+        <v>1126</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1211</v>
+        <v>1127</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1211</v>
+        <v>1127</v>
       </c>
       <c r="W138" s="1"/>
-      <c r="X138" s="1" t="s">
-        <v>1199</v>
-      </c>
       <c r="Y138" s="1" t="s">
-        <v>1200</v>
+        <v>1115</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>1212</v>
+        <v>1116</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>1202</v>
+        <v>1128</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>1199</v>
+        <v>1118</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1213</v>
+        <v>1129</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1214</v>
+        <v>1130</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1215</v>
+        <v>1131</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1216</v>
+        <v>1132</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1217</v>
+        <v>1133</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1218</v>
+        <v>1134</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1219</v>
+        <v>1135</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1220</v>
+        <v>1136</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1221</v>
+        <v>1137</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1222</v>
+        <v>1138</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1221</v>
+        <v>1137</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1222</v>
+        <v>1138</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1221</v>
+        <v>1137</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1222</v>
+        <v>1138</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1221</v>
+        <v>1137</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1223</v>
+        <v>1139</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1223</v>
+        <v>1139</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1224</v>
+        <v>1140</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1224</v>
+        <v>1140</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1225</v>
+        <v>1141</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1" t="s">
-        <v>1214</v>
+        <v>1130</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>1215</v>
+        <v>1131</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>1227</v>
+        <v>1143</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>1217</v>
+        <v>1133</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>1214</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1228</v>
+        <v>1144</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1229</v>
+        <v>1145</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1230</v>
+        <v>1146</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1231</v>
+        <v>1147</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1232</v>
+        <v>1148</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1233</v>
+        <v>1149</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1234</v>
+        <v>1150</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1235</v>
+        <v>1151</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1236</v>
+        <v>1152</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1237</v>
+        <v>1153</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1236</v>
+        <v>1152</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1237</v>
+        <v>1153</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1236</v>
+        <v>1152</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1237</v>
+        <v>1153</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1236</v>
+        <v>1152</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1238</v>
+        <v>1154</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1238</v>
+        <v>1154</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1239</v>
+        <v>1155</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1239</v>
+        <v>1155</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1240</v>
+        <v>1156</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1241</v>
+        <v>1157</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1241</v>
+        <v>1157</v>
       </c>
       <c r="W140" s="1"/>
-      <c r="X140" s="1" t="s">
-        <v>1229</v>
-      </c>
       <c r="Y140" s="1" t="s">
-        <v>1230</v>
+        <v>1145</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>1242</v>
+        <v>1146</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>1232</v>
+        <v>1158</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>1229</v>
+        <v>1148</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1243</v>
+        <v>1159</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1244</v>
+        <v>1160</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1245</v>
+        <v>1161</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1246</v>
+        <v>1162</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1247</v>
+        <v>1163</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1248</v>
+        <v>1164</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1249</v>
+        <v>1165</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1250</v>
+        <v>1166</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1251</v>
+        <v>1167</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1252</v>
+        <v>1168</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1251</v>
+        <v>1167</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1252</v>
+        <v>1168</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1251</v>
+        <v>1167</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1252</v>
+        <v>1168</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1251</v>
+        <v>1167</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1253</v>
+        <v>1169</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1253</v>
+        <v>1169</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1255</v>
+        <v>1171</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1256</v>
+        <v>1172</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1256</v>
+        <v>1172</v>
       </c>
       <c r="W141" s="1"/>
-      <c r="X141" s="1" t="s">
-        <v>1244</v>
-      </c>
       <c r="Y141" s="1" t="s">
-        <v>1245</v>
+        <v>1160</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>1257</v>
+        <v>1161</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>1247</v>
+        <v>1173</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>1244</v>
+        <v>1163</v>
+      </c>
+      <c r="AC141" s="1" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1258</v>
+        <v>1174</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1259</v>
+        <v>1175</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1260</v>
+        <v>1176</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1261</v>
+        <v>1177</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1262</v>
+        <v>1178</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1263</v>
+        <v>1179</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1264</v>
+        <v>1180</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1265</v>
+        <v>1181</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1266</v>
+        <v>1182</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1267</v>
+        <v>1183</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1266</v>
+        <v>1182</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1267</v>
+        <v>1183</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1266</v>
+        <v>1182</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1267</v>
+        <v>1183</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1266</v>
+        <v>1182</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>1268</v>
+        <v>1184</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1268</v>
+        <v>1184</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1269</v>
+        <v>1185</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1269</v>
+        <v>1185</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1270</v>
+        <v>1186</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1271</v>
+        <v>1187</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1271</v>
+        <v>1187</v>
       </c>
       <c r="W142" s="1"/>
-      <c r="X142" s="1" t="s">
-        <v>1259</v>
-      </c>
       <c r="Y142" s="1" t="s">
-        <v>1260</v>
+        <v>1175</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>1272</v>
+        <v>1176</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>1262</v>
+        <v>1188</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>1259</v>
+        <v>1178</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1273</v>
+        <v>1189</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1275</v>
+        <v>1191</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1276</v>
+        <v>1192</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1276</v>
+        <v>1192</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1277</v>
+        <v>1193</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1277</v>
+        <v>1193</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1278</v>
+        <v>1194</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>1279</v>
+        <v>1195</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1279</v>
+        <v>1195</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>1279</v>
+        <v>1195</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>1279</v>
+        <v>1195</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1280</v>
+        <v>1196</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1280</v>
+        <v>1196</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1280</v>
+        <v>1196</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="Z143" s="1" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>1281</v>
+        <v>1197</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>1276</v>
+        <v>1192</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1282</v>
+        <v>1198</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1284</v>
+        <v>1200</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1285</v>
+        <v>1201</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1285</v>
+        <v>1201</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1286</v>
+        <v>1202</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1286</v>
+        <v>1202</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1287</v>
+        <v>1203</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1288</v>
+        <v>1204</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1288</v>
+        <v>1204</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>1288</v>
+        <v>1204</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1288</v>
+        <v>1204</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1289</v>
+        <v>1205</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1289</v>
+        <v>1205</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>1289</v>
+        <v>1205</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>1290</v>
+        <v>1206</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>1285</v>
+        <v>1201</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1291</v>
+        <v>1207</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1292</v>
+        <v>1208</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1292</v>
+        <v>1208</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1293</v>
+        <v>1209</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1294</v>
+        <v>1210</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1294</v>
+        <v>1210</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1295</v>
+        <v>1211</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1295</v>
+        <v>1211</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1296</v>
+        <v>1212</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1297</v>
+        <v>1213</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1297</v>
+        <v>1213</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>1297</v>
+        <v>1213</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>1297</v>
+        <v>1213</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1" t="s">
-        <v>1292</v>
+        <v>1208</v>
       </c>
       <c r="Z145" s="1" t="s">
-        <v>1292</v>
+        <v>1208</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>1299</v>
+        <v>1215</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>1294</v>
+        <v>1210</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>1292</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1300</v>
+        <v>1216</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1301</v>
+        <v>1217</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1301</v>
+        <v>1217</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1302</v>
+        <v>1218</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1303</v>
+        <v>1219</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1303</v>
+        <v>1219</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1304</v>
+        <v>1220</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1304</v>
+        <v>1220</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>1306</v>
+        <v>1222</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1306</v>
+        <v>1222</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1306</v>
+        <v>1222</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1306</v>
+        <v>1222</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1307</v>
+        <v>1223</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1307</v>
+        <v>1223</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1307</v>
+        <v>1223</v>
       </c>
       <c r="W146" s="1"/>
-      <c r="X146" s="1" t="s">
-        <v>1301</v>
-      </c>
       <c r="Y146" s="1" t="s">
-        <v>1301</v>
+        <v>1217</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>1308</v>
+        <v>1217</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1303</v>
+        <v>1224</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>1301</v>
+        <v>1219</v>
+      </c>
+      <c r="AC146" s="1" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1309</v>
+        <v>1225</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1310</v>
+        <v>1226</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1310</v>
+        <v>1226</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1311</v>
+        <v>1227</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1312</v>
+        <v>1228</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1312</v>
+        <v>1228</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1313</v>
+        <v>1229</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1313</v>
+        <v>1229</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1314</v>
+        <v>1230</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>1315</v>
+        <v>1231</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1315</v>
+        <v>1231</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>1315</v>
+        <v>1231</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1315</v>
+        <v>1231</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1316</v>
+        <v>1232</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1316</v>
+        <v>1232</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1316</v>
+        <v>1232</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1" t="s">
-        <v>1310</v>
+        <v>1226</v>
       </c>
       <c r="Z147" s="1" t="s">
-        <v>1310</v>
+        <v>1226</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>1317</v>
+        <v>1233</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>1312</v>
+        <v>1228</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>1310</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1318</v>
+        <v>1234</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1319</v>
+        <v>1235</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1319</v>
+        <v>1235</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1320</v>
+        <v>1236</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1321</v>
+        <v>1237</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1321</v>
+        <v>1237</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1322</v>
+        <v>1238</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1322</v>
+        <v>1238</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1323</v>
+        <v>1239</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1324</v>
+        <v>1240</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1324</v>
+        <v>1240</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1324</v>
+        <v>1240</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>1324</v>
+        <v>1240</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1325</v>
+        <v>1241</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1325</v>
+        <v>1241</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1325</v>
+        <v>1241</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1" t="s">
-        <v>1319</v>
+        <v>1235</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>1319</v>
+        <v>1235</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>1326</v>
+        <v>1242</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>1321</v>
+        <v>1237</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>1319</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1327</v>
+        <v>1243</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>168</v>
@@ -17090,19 +17090,19 @@
         <v>168</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1328</v>
+        <v>1244</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1329</v>
+        <v>1245</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1329</v>
+        <v>1245</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1330</v>
+        <v>1246</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1330</v>
+        <v>1246</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>168</v>
@@ -17114,51 +17114,51 @@
         <v>168</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1331</v>
+        <v>1247</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1331</v>
+        <v>1247</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>168</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>1331</v>
+        <v>1247</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1332</v>
+        <v>1248</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1333</v>
+        <v>1249</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>1332</v>
+        <v>1248</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1334</v>
+        <v>1250</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1333</v>
+        <v>1249</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1334</v>
+        <v>1250</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1334</v>
+        <v>1250</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1" t="s">
-        <v>1331</v>
+        <v>1247</v>
       </c>
       <c r="Z149" s="1" t="s">
-        <v>1328</v>
+        <v>1244</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>1335</v>
+        <v>1251</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>1331</v>
+        <v>1247</v>
       </c>
       <c r="AC149" s="1" t="s">
         <v>168</v>
@@ -17166,257 +17166,257 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1336</v>
+        <v>1252</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1337</v>
+        <v>1253</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1338</v>
+        <v>1254</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1338</v>
+        <v>1254</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1339</v>
+        <v>1255</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1339</v>
+        <v>1255</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1341</v>
+        <v>1257</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="Z150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>1342</v>
+        <v>1258</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>1338</v>
+        <v>1254</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>894</v>
+        <v>810</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1343</v>
+        <v>1259</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1345</v>
+        <v>1261</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1346</v>
+        <v>1262</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1346</v>
+        <v>1262</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1347</v>
+        <v>1263</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1347</v>
+        <v>1263</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1349</v>
+        <v>1265</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>1350</v>
+        <v>1266</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1349</v>
+        <v>1265</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1350</v>
+        <v>1266</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>1345</v>
+        <v>1261</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>1352</v>
+        <v>1268</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1353</v>
+        <v>1269</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1355</v>
+        <v>1271</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1357</v>
+        <v>1273</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1357</v>
+        <v>1273</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1359</v>
+        <v>1275</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>

--- a/VerbConjugation/XLSX/ArmStemmed.xlsx
+++ b/VerbConjugation/XLSX/ArmStemmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300484D-A880-2D44-A691-FBF6C851428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D1F56-0BD8-8F41-89C4-8D2B121B7A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="1600" windowWidth="28040" windowHeight="15760" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2908,39 +2908,21 @@
     <t>կը {X}եմ</t>
   </si>
   <si>
-    <t>կ՚{X}եմ</t>
-  </si>
-  <si>
     <t>կը {X}ամ</t>
   </si>
   <si>
     <t>կը {X}նամ</t>
   </si>
   <si>
-    <t>կ՚{X}նամ</t>
-  </si>
-  <si>
     <t>կը {X}ցնեմ</t>
   </si>
   <si>
-    <t>կ՚{X}ցնեմ</t>
-  </si>
-  <si>
     <t>կը {X}նեմ</t>
   </si>
   <si>
-    <t>կ՚{X}նեմ</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}եմ</t>
-  </si>
-  <si>
     <t>կը {Xprs}եմ</t>
   </si>
   <si>
-    <t>կ՚{Xprs}ամ</t>
-  </si>
-  <si>
     <t>կը {Xprs}ամ</t>
   </si>
   <si>
@@ -2953,39 +2935,21 @@
     <t>կը {X}ես</t>
   </si>
   <si>
-    <t>կ՚{X}ես</t>
-  </si>
-  <si>
     <t>կը {X}աս</t>
   </si>
   <si>
     <t>կը {X}նաս</t>
   </si>
   <si>
-    <t>կ՚{X}նաս</t>
-  </si>
-  <si>
     <t>կը {X}ցնես</t>
   </si>
   <si>
-    <t>կ՚{X}ցնես</t>
-  </si>
-  <si>
     <t>կը {X}նես</t>
   </si>
   <si>
-    <t>կ՚{X}նես</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}ես</t>
-  </si>
-  <si>
     <t>կը {Xprs}ես</t>
   </si>
   <si>
-    <t>կ՚{Xprs}աս</t>
-  </si>
-  <si>
     <t>կը {Xprs}աս</t>
   </si>
   <si>
@@ -2998,39 +2962,21 @@
     <t>կը {X}ի</t>
   </si>
   <si>
-    <t>կ՚{X}ի</t>
-  </si>
-  <si>
     <t>կը {X}այ</t>
   </si>
   <si>
     <t>կը {X}նայ</t>
   </si>
   <si>
-    <t>կ՚{X}նայ</t>
-  </si>
-  <si>
     <t>կը {X}ցնի</t>
   </si>
   <si>
-    <t>կ՚{X}ցնի</t>
-  </si>
-  <si>
     <t>կը {X}նի</t>
   </si>
   <si>
-    <t>կ՚{X}նի</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}ի</t>
-  </si>
-  <si>
     <t>կը {Xprs}ի</t>
   </si>
   <si>
-    <t>կ՚{Xprs}այ</t>
-  </si>
-  <si>
     <t>կը {Xprs}այ</t>
   </si>
   <si>
@@ -3043,39 +2989,21 @@
     <t>կը {X}ենք</t>
   </si>
   <si>
-    <t>կ՚{X}ենք</t>
-  </si>
-  <si>
     <t>կը {X}անք</t>
   </si>
   <si>
     <t>կը {X}նանք</t>
   </si>
   <si>
-    <t>կ՚{X}նանք</t>
-  </si>
-  <si>
     <t>կը {X}ցնենք</t>
   </si>
   <si>
-    <t>կ՚{X}ցնենք</t>
-  </si>
-  <si>
     <t>կը {X}նենք</t>
   </si>
   <si>
-    <t>կ՚{X}նենք</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}ենք</t>
-  </si>
-  <si>
     <t>կը {Xprs}ենք</t>
   </si>
   <si>
-    <t>կ՚{Xprs}անք</t>
-  </si>
-  <si>
     <t>կը {Xprs}անք</t>
   </si>
   <si>
@@ -3088,39 +3016,21 @@
     <t>կը {X}էք</t>
   </si>
   <si>
-    <t>կ՚{X}էք</t>
-  </si>
-  <si>
     <t>կը {X}աք</t>
   </si>
   <si>
     <t>կը {X}նաք</t>
   </si>
   <si>
-    <t>կ՚{X}նաք</t>
-  </si>
-  <si>
     <t>կը {X}ցնէք</t>
   </si>
   <si>
-    <t>կ՚{X}ցնէք</t>
-  </si>
-  <si>
     <t>կը {X}նէք</t>
   </si>
   <si>
-    <t>կ՚{X}նէք</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}էք</t>
-  </si>
-  <si>
     <t>կը {Xprs}էք</t>
   </si>
   <si>
-    <t>կ՚{Xprs}աք</t>
-  </si>
-  <si>
     <t>կը {Xprs}աք</t>
   </si>
   <si>
@@ -3133,39 +3043,21 @@
     <t>կը {X}են</t>
   </si>
   <si>
-    <t>կ՚{X}են</t>
-  </si>
-  <si>
     <t>կը {X}ան</t>
   </si>
   <si>
     <t>կը {X}նան</t>
   </si>
   <si>
-    <t>կ՚{X}նան</t>
-  </si>
-  <si>
     <t>կը {X}ցնեն</t>
   </si>
   <si>
-    <t>կ՚{X}ցնեն</t>
-  </si>
-  <si>
     <t>կը {X}նեն</t>
   </si>
   <si>
-    <t>կ՚{X}նեն</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}են</t>
-  </si>
-  <si>
     <t>կը {Xprs}են</t>
   </si>
   <si>
-    <t>կ՚{Xprs}ան</t>
-  </si>
-  <si>
     <t>կը {Xprs}ան</t>
   </si>
   <si>
@@ -3340,39 +3232,21 @@
     <t>կը {X}իմ</t>
   </si>
   <si>
-    <t>կ՚{X}իմ</t>
-  </si>
-  <si>
     <t>կը {X}այիմ</t>
   </si>
   <si>
     <t>կը {X}նայիմ</t>
   </si>
   <si>
-    <t>կ՚{X}նայիմ</t>
-  </si>
-  <si>
     <t>կը {X}ցնիմ</t>
   </si>
   <si>
-    <t>կ՚{X}ցնիմ</t>
-  </si>
-  <si>
     <t>կը {X}նիմ</t>
   </si>
   <si>
-    <t>կ՚{X}նիմ</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}իմ</t>
-  </si>
-  <si>
     <t>կը {Xprs}իմ</t>
   </si>
   <si>
-    <t>կ՚{Xprs}այիմ</t>
-  </si>
-  <si>
     <t>կը {Xprs}այիմ</t>
   </si>
   <si>
@@ -3385,39 +3259,21 @@
     <t>կը {X}իր</t>
   </si>
   <si>
-    <t>կ՚{X}իր</t>
-  </si>
-  <si>
     <t>կը {X}այիր</t>
   </si>
   <si>
     <t>կը {X}նայիր</t>
   </si>
   <si>
-    <t>կ՚{X}նայիր</t>
-  </si>
-  <si>
     <t>կը {X}ցնիր</t>
   </si>
   <si>
-    <t>կ՚{X}ցնիր</t>
-  </si>
-  <si>
     <t>կը {X}նիր</t>
   </si>
   <si>
-    <t>կ՚{X}նիր</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}իր</t>
-  </si>
-  <si>
     <t>կը {Xprs}իր</t>
   </si>
   <si>
-    <t>կ՚{Xprs}այիր</t>
-  </si>
-  <si>
     <t>կը {Xprs}այիր</t>
   </si>
   <si>
@@ -3430,39 +3286,21 @@
     <t>կը {X}էր</t>
   </si>
   <si>
-    <t>կ՚{X}էր</t>
-  </si>
-  <si>
     <t>կը {X}ար</t>
   </si>
   <si>
     <t>կը {X}նար</t>
   </si>
   <si>
-    <t>կ՚{X}նար</t>
-  </si>
-  <si>
     <t>կը {X}ցնէր</t>
   </si>
   <si>
-    <t>կ՚{X}ցնէր</t>
-  </si>
-  <si>
     <t>կը {X}նէր</t>
   </si>
   <si>
-    <t>կ՚{X}նէր</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}էր</t>
-  </si>
-  <si>
     <t>կը {Xprs}էր</t>
   </si>
   <si>
-    <t>կ՚{Xprs}ար</t>
-  </si>
-  <si>
     <t>կը {Xprs}ար</t>
   </si>
   <si>
@@ -3475,39 +3313,21 @@
     <t>կը {X}ինք</t>
   </si>
   <si>
-    <t>կ՚{X}ինք</t>
-  </si>
-  <si>
     <t>կը {X}այինք</t>
   </si>
   <si>
     <t>կը {X}նայինք</t>
   </si>
   <si>
-    <t>կ՚{X}նայինք</t>
-  </si>
-  <si>
     <t>կը {X}ցնինք</t>
   </si>
   <si>
-    <t>կ՚{X}ցնինք</t>
-  </si>
-  <si>
     <t>կը {X}նինք</t>
   </si>
   <si>
-    <t>կ՚{X}նինք</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}ինք</t>
-  </si>
-  <si>
     <t>կը {Xprs}ինք</t>
   </si>
   <si>
-    <t>կ՚{Xprs}այինք</t>
-  </si>
-  <si>
     <t>կը {Xprs}այինք</t>
   </si>
   <si>
@@ -3520,39 +3340,21 @@
     <t>կը {X}իք</t>
   </si>
   <si>
-    <t>կ՚{X}իք</t>
-  </si>
-  <si>
     <t>կը {X}այիք</t>
   </si>
   <si>
     <t>կը {X}նայիք</t>
   </si>
   <si>
-    <t>կ՚{X}նայիք</t>
-  </si>
-  <si>
     <t>կը {X}ցնիք</t>
   </si>
   <si>
-    <t>կ՚{X}ցնիք</t>
-  </si>
-  <si>
     <t>կը {X}նիք</t>
   </si>
   <si>
-    <t>կ՚{X}նիք</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}իք</t>
-  </si>
-  <si>
     <t>կը {Xprs}իք</t>
   </si>
   <si>
-    <t>կ՚{Xprs}այիք</t>
-  </si>
-  <si>
     <t>կը {Xprs}այիք</t>
   </si>
   <si>
@@ -3565,39 +3367,21 @@
     <t>կը {X}ին</t>
   </si>
   <si>
-    <t>կ՚{X}ին</t>
-  </si>
-  <si>
     <t>կը {X}ային</t>
   </si>
   <si>
     <t>կը {X}նային</t>
   </si>
   <si>
-    <t>կ՚{X}նային</t>
-  </si>
-  <si>
     <t>կը {X}ցնին</t>
   </si>
   <si>
-    <t>կ՚{X}ցնին</t>
-  </si>
-  <si>
     <t>կը {X}նին</t>
   </si>
   <si>
-    <t>կ՚{X}նին</t>
-  </si>
-  <si>
-    <t>կ՚{Xprs}ին</t>
-  </si>
-  <si>
     <t>կը {Xprs}ին</t>
   </si>
   <si>
-    <t>կ՚{Xprs}ային</t>
-  </si>
-  <si>
     <t>կը {Xprs}ային</t>
   </si>
   <si>
@@ -4118,6 +3902,222 @@
   </si>
   <si>
     <t>չին {Xpst}ձէ</t>
+  </si>
+  <si>
+    <t>կ{X}եմ</t>
+  </si>
+  <si>
+    <t>կ{X}նամ</t>
+  </si>
+  <si>
+    <t>կ{X}ցնեմ</t>
+  </si>
+  <si>
+    <t>կ{X}նեմ</t>
+  </si>
+  <si>
+    <t>կ{Xprs}եմ</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ամ</t>
+  </si>
+  <si>
+    <t>կ{X}ես</t>
+  </si>
+  <si>
+    <t>կ{X}նաս</t>
+  </si>
+  <si>
+    <t>կ{X}ցնես</t>
+  </si>
+  <si>
+    <t>կ{X}նես</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ես</t>
+  </si>
+  <si>
+    <t>կ{Xprs}աս</t>
+  </si>
+  <si>
+    <t>կ{X}ի</t>
+  </si>
+  <si>
+    <t>կ{X}նայ</t>
+  </si>
+  <si>
+    <t>կ{X}ցնի</t>
+  </si>
+  <si>
+    <t>կ{X}նի</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ի</t>
+  </si>
+  <si>
+    <t>կ{Xprs}այ</t>
+  </si>
+  <si>
+    <t>կ{X}ենք</t>
+  </si>
+  <si>
+    <t>կ{X}նանք</t>
+  </si>
+  <si>
+    <t>կ{X}ցնենք</t>
+  </si>
+  <si>
+    <t>կ{X}նենք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ենք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}անք</t>
+  </si>
+  <si>
+    <t>կ{X}էք</t>
+  </si>
+  <si>
+    <t>կ{X}նաք</t>
+  </si>
+  <si>
+    <t>կ{X}ցնէք</t>
+  </si>
+  <si>
+    <t>կ{X}նէք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}էք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}աք</t>
+  </si>
+  <si>
+    <t>կ{X}են</t>
+  </si>
+  <si>
+    <t>կ{X}նան</t>
+  </si>
+  <si>
+    <t>կ{X}ցնեն</t>
+  </si>
+  <si>
+    <t>կ{X}նեն</t>
+  </si>
+  <si>
+    <t>կ{Xprs}են</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ան</t>
+  </si>
+  <si>
+    <t>կ{X}իմ</t>
+  </si>
+  <si>
+    <t>կ{X}նայիմ</t>
+  </si>
+  <si>
+    <t>կ{X}ցնիմ</t>
+  </si>
+  <si>
+    <t>կ{X}նիմ</t>
+  </si>
+  <si>
+    <t>կ{Xprs}իմ</t>
+  </si>
+  <si>
+    <t>կ{Xprs}այիմ</t>
+  </si>
+  <si>
+    <t>կ{X}իր</t>
+  </si>
+  <si>
+    <t>կ{X}նայիր</t>
+  </si>
+  <si>
+    <t>կ{X}ցնիր</t>
+  </si>
+  <si>
+    <t>կ{X}նիր</t>
+  </si>
+  <si>
+    <t>կ{Xprs}իր</t>
+  </si>
+  <si>
+    <t>կ{Xprs}այիր</t>
+  </si>
+  <si>
+    <t>կ{X}էր</t>
+  </si>
+  <si>
+    <t>կ{X}նար</t>
+  </si>
+  <si>
+    <t>կ{X}ցնէր</t>
+  </si>
+  <si>
+    <t>կ{X}նէր</t>
+  </si>
+  <si>
+    <t>կ{Xprs}էր</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ար</t>
+  </si>
+  <si>
+    <t>կ{X}ինք</t>
+  </si>
+  <si>
+    <t>կ{X}նայինք</t>
+  </si>
+  <si>
+    <t>կ{X}ցնինք</t>
+  </si>
+  <si>
+    <t>կ{X}նինք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ինք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}այինք</t>
+  </si>
+  <si>
+    <t>կ{X}իք</t>
+  </si>
+  <si>
+    <t>կ{X}նայիք</t>
+  </si>
+  <si>
+    <t>կ{X}ցնիք</t>
+  </si>
+  <si>
+    <t>կ{X}նիք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}իք</t>
+  </si>
+  <si>
+    <t>կ{Xprs}այիք</t>
+  </si>
+  <si>
+    <t>կ{X}ին</t>
+  </si>
+  <si>
+    <t>կ{X}նային</t>
+  </si>
+  <si>
+    <t>կ{X}ցնին</t>
+  </si>
+  <si>
+    <t>կ{X}նին</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ին</t>
+  </si>
+  <si>
+    <t>կ{Xprs}ային</t>
   </si>
 </sst>
 </file>
@@ -10468,84 +10468,84 @@
         <v>650</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1311</v>
+        <v>1239</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1330</v>
+        <v>1258</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1330</v>
+        <v>1258</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1342</v>
+        <v>1270</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1342</v>
+        <v>1270</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1312</v>
+        <v>1240</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>1288</v>
+        <v>1216</v>
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>1354</v>
+        <v>1282</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>1330</v>
+        <v>1258</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>1287</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
@@ -10553,84 +10553,84 @@
         <v>651</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1301</v>
+        <v>1229</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1325</v>
+        <v>1253</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1325</v>
+        <v>1253</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1337</v>
+        <v>1265</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1337</v>
+        <v>1265</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1302</v>
+        <v>1230</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AA72" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="Z72" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AA72" s="1" t="s">
-        <v>1349</v>
-      </c>
       <c r="AB72" s="1" t="s">
-        <v>1325</v>
+        <v>1253</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>1277</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
@@ -10638,84 +10638,84 @@
         <v>652</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1303</v>
+        <v>1231</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1326</v>
+        <v>1254</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1326</v>
+        <v>1254</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1338</v>
+        <v>1266</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1338</v>
+        <v>1266</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1304</v>
+        <v>1232</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>1350</v>
+        <v>1278</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>1326</v>
+        <v>1254</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>1279</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
@@ -10723,84 +10723,84 @@
         <v>653</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1305</v>
+        <v>1233</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1327</v>
+        <v>1255</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1327</v>
+        <v>1255</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1339</v>
+        <v>1267</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1339</v>
+        <v>1267</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1306</v>
+        <v>1234</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>1282</v>
+        <v>1210</v>
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>1351</v>
+        <v>1279</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>1327</v>
+        <v>1255</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>1281</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
@@ -10808,84 +10808,84 @@
         <v>654</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1307</v>
+        <v>1235</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1328</v>
+        <v>1256</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1328</v>
+        <v>1256</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1340</v>
+        <v>1268</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1340</v>
+        <v>1268</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1308</v>
+        <v>1236</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>1284</v>
+        <v>1212</v>
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>1352</v>
+        <v>1280</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>1328</v>
+        <v>1256</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>1283</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
@@ -10893,84 +10893,84 @@
         <v>655</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1309</v>
+        <v>1237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1329</v>
+        <v>1257</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1329</v>
+        <v>1257</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1341</v>
+        <v>1269</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1341</v>
+        <v>1269</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1310</v>
+        <v>1238</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>1353</v>
+        <v>1281</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>1329</v>
+        <v>1257</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>1285</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -11482,84 +11482,84 @@
         <v>683</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1313</v>
+        <v>1241</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1331</v>
+        <v>1259</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1331</v>
+        <v>1259</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1343</v>
+        <v>1271</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>1343</v>
+        <v>1271</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1314</v>
+        <v>1242</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>1290</v>
+        <v>1218</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>1355</v>
+        <v>1283</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>1331</v>
+        <v>1259</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>1289</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
@@ -11567,84 +11567,84 @@
         <v>684</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1315</v>
+        <v>1243</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1332</v>
+        <v>1260</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1332</v>
+        <v>1260</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1344</v>
+        <v>1272</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1344</v>
+        <v>1272</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>1316</v>
+        <v>1244</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>1292</v>
+        <v>1220</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>1356</v>
+        <v>1284</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>1332</v>
+        <v>1260</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>1291</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
@@ -11652,84 +11652,84 @@
         <v>685</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1317</v>
+        <v>1245</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1333</v>
+        <v>1261</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1333</v>
+        <v>1261</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1345</v>
+        <v>1273</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>1345</v>
+        <v>1273</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1318</v>
+        <v>1246</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>1294</v>
+        <v>1222</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>1357</v>
+        <v>1285</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>1333</v>
+        <v>1261</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>1293</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
@@ -11737,84 +11737,84 @@
         <v>686</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1319</v>
+        <v>1247</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1334</v>
+        <v>1262</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1334</v>
+        <v>1262</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1346</v>
+        <v>1274</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>1346</v>
+        <v>1274</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>1320</v>
+        <v>1248</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>1296</v>
+        <v>1224</v>
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>1358</v>
+        <v>1286</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>1334</v>
+        <v>1262</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>1295</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
@@ -11822,84 +11822,84 @@
         <v>687</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1321</v>
+        <v>1249</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1335</v>
+        <v>1263</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1335</v>
+        <v>1263</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1347</v>
+        <v>1275</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>1347</v>
+        <v>1275</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>1322</v>
+        <v>1250</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>1298</v>
+        <v>1226</v>
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>1359</v>
+        <v>1287</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>1335</v>
+        <v>1263</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>1297</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
@@ -11907,84 +11907,84 @@
         <v>688</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1323</v>
+        <v>1251</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1336</v>
+        <v>1264</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1336</v>
+        <v>1264</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1348</v>
+        <v>1276</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>1348</v>
+        <v>1276</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>1324</v>
+        <v>1252</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>1300</v>
+        <v>1228</v>
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>1360</v>
+        <v>1288</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>1336</v>
+        <v>1264</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>1299</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
@@ -15055,64 +15055,64 @@
         <v>956</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="H125" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="J125" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R125" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="S125" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="U125" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="T125" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>968</v>
-      </c>
       <c r="V125" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
@@ -15120,13 +15120,13 @@
         <v>956</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>957</v>
+        <v>1289</v>
       </c>
       <c r="AA125" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AB125" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AC125" s="1" t="s">
         <v>956</v>
@@ -15134,1954 +15134,1954 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="R126" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="S126" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="T126" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="U126" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="S126" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="T126" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="V126" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="Z126" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AA126" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="AA126" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="AB126" s="1" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="AC126" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>987</v>
+        <v>1301</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>990</v>
+        <v>1302</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>992</v>
+        <v>1303</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>994</v>
+        <v>1304</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>994</v>
+        <v>1304</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>994</v>
+        <v>1304</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>995</v>
+        <v>1305</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>995</v>
+        <v>1305</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>997</v>
+        <v>1306</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
       <c r="Y127" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>987</v>
+        <v>1301</v>
       </c>
       <c r="AA127" s="1" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="AB127" s="1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1002</v>
+        <v>1307</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1005</v>
+        <v>1308</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1007</v>
+        <v>1309</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1009</v>
+        <v>1310</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>1009</v>
+        <v>1310</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1009</v>
+        <v>1310</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>1010</v>
+        <v>1311</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>1010</v>
+        <v>1311</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1012</v>
+        <v>1312</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="W128" s="1"/>
       <c r="Y128" s="1" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>1002</v>
+        <v>1307</v>
       </c>
       <c r="AA128" s="1" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
       <c r="AB128" s="1" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="AC128" s="1" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1015</v>
+        <v>991</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1017</v>
+        <v>1313</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1020</v>
+        <v>1314</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1022</v>
+        <v>1315</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1024</v>
+        <v>1316</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>1024</v>
+        <v>1316</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1024</v>
+        <v>1316</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1025</v>
+        <v>1317</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1025</v>
+        <v>1317</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>1027</v>
+        <v>1318</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>1028</v>
+        <v>998</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>1028</v>
+        <v>998</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>1017</v>
+        <v>1313</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>1029</v>
+        <v>999</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1032</v>
+        <v>1319</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1035</v>
+        <v>1320</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1036</v>
+        <v>1004</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1037</v>
+        <v>1321</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1039</v>
+        <v>1322</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1039</v>
+        <v>1322</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1039</v>
+        <v>1322</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1040</v>
+        <v>1323</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1040</v>
+        <v>1323</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1042</v>
+        <v>1324</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>1032</v>
+        <v>1319</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1047</v>
+        <v>1011</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>1053</v>
+        <v>1017</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1054</v>
+        <v>1018</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1056</v>
+        <v>1020</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>1071</v>
+        <v>1035</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1072</v>
+        <v>1036</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1074</v>
+        <v>1038</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="W134" s="1"/>
       <c r="Y134" s="1" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1101</v>
+        <v>1325</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1102</v>
+        <v>1065</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1103</v>
+        <v>1066</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1104</v>
+        <v>1326</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1105</v>
+        <v>1067</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1106</v>
+        <v>1327</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1108</v>
+        <v>1328</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1108</v>
+        <v>1328</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1108</v>
+        <v>1328</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1109</v>
+        <v>1329</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1109</v>
+        <v>1329</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1111</v>
+        <v>1330</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1112</v>
+        <v>1070</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1112</v>
+        <v>1070</v>
       </c>
       <c r="W137" s="1"/>
       <c r="Y137" s="1" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>1101</v>
+        <v>1325</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>1113</v>
+        <v>1071</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>1103</v>
+        <v>1066</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1114</v>
+        <v>1072</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1115</v>
+        <v>1073</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1116</v>
+        <v>1331</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1117</v>
+        <v>1074</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1119</v>
+        <v>1332</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1120</v>
+        <v>1076</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1121</v>
+        <v>1333</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1123</v>
+        <v>1334</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1123</v>
+        <v>1334</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1123</v>
+        <v>1334</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1124</v>
+        <v>1335</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1124</v>
+        <v>1335</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1125</v>
+        <v>1078</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1125</v>
+        <v>1078</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1126</v>
+        <v>1336</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1127</v>
+        <v>1079</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1127</v>
+        <v>1079</v>
       </c>
       <c r="W138" s="1"/>
       <c r="Y138" s="1" t="s">
-        <v>1115</v>
+        <v>1073</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>1116</v>
+        <v>1331</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>1128</v>
+        <v>1080</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>1115</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1129</v>
+        <v>1081</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1130</v>
+        <v>1082</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1131</v>
+        <v>1337</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1132</v>
+        <v>1083</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1133</v>
+        <v>1084</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1134</v>
+        <v>1338</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1136</v>
+        <v>1339</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1137</v>
+        <v>1086</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1138</v>
+        <v>1340</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1137</v>
+        <v>1086</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1138</v>
+        <v>1340</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1137</v>
+        <v>1086</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1138</v>
+        <v>1340</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1137</v>
+        <v>1086</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1139</v>
+        <v>1341</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1139</v>
+        <v>1341</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1140</v>
+        <v>1087</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1140</v>
+        <v>1087</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1141</v>
+        <v>1342</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1142</v>
+        <v>1088</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1142</v>
+        <v>1088</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1" t="s">
-        <v>1130</v>
+        <v>1082</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>1131</v>
+        <v>1337</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>1143</v>
+        <v>1089</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>1133</v>
+        <v>1084</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>1130</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1144</v>
+        <v>1090</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1145</v>
+        <v>1091</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1146</v>
+        <v>1343</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1147</v>
+        <v>1092</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1148</v>
+        <v>1093</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1149</v>
+        <v>1344</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1150</v>
+        <v>1094</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1151</v>
+        <v>1345</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1153</v>
+        <v>1346</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1153</v>
+        <v>1346</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1153</v>
+        <v>1346</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1152</v>
+        <v>1095</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1154</v>
+        <v>1347</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1154</v>
+        <v>1347</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1155</v>
+        <v>1096</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1155</v>
+        <v>1096</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1156</v>
+        <v>1348</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
       <c r="W140" s="1"/>
       <c r="Y140" s="1" t="s">
-        <v>1145</v>
+        <v>1091</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>1146</v>
+        <v>1343</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>1158</v>
+        <v>1098</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>1148</v>
+        <v>1093</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>1145</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1161</v>
+        <v>1349</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1162</v>
+        <v>1101</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1163</v>
+        <v>1102</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1164</v>
+        <v>1350</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1165</v>
+        <v>1103</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1166</v>
+        <v>1351</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1167</v>
+        <v>1104</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1168</v>
+        <v>1352</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1167</v>
+        <v>1104</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1168</v>
+        <v>1352</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1167</v>
+        <v>1104</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1168</v>
+        <v>1352</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1167</v>
+        <v>1104</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1169</v>
+        <v>1353</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1169</v>
+        <v>1353</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>1170</v>
+        <v>1105</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1170</v>
+        <v>1105</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1171</v>
+        <v>1354</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1172</v>
+        <v>1106</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1172</v>
+        <v>1106</v>
       </c>
       <c r="W141" s="1"/>
       <c r="Y141" s="1" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>1161</v>
+        <v>1349</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>1173</v>
+        <v>1107</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>1163</v>
+        <v>1102</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>1160</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1174</v>
+        <v>1108</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1175</v>
+        <v>1109</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1176</v>
+        <v>1355</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1177</v>
+        <v>1110</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1178</v>
+        <v>1111</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1179</v>
+        <v>1356</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1180</v>
+        <v>1112</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1181</v>
+        <v>1357</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1182</v>
+        <v>1113</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1183</v>
+        <v>1358</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1182</v>
+        <v>1113</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1183</v>
+        <v>1358</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1182</v>
+        <v>1113</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1183</v>
+        <v>1358</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1182</v>
+        <v>1113</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>1184</v>
+        <v>1359</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1184</v>
+        <v>1359</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1185</v>
+        <v>1114</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1185</v>
+        <v>1114</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1186</v>
+        <v>1360</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1187</v>
+        <v>1115</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1187</v>
+        <v>1115</v>
       </c>
       <c r="W142" s="1"/>
       <c r="Y142" s="1" t="s">
-        <v>1175</v>
+        <v>1109</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>1176</v>
+        <v>1355</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>1188</v>
+        <v>1116</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>1178</v>
+        <v>1111</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>1175</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1189</v>
+        <v>1117</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1191</v>
+        <v>1119</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1192</v>
+        <v>1120</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1192</v>
+        <v>1120</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1193</v>
+        <v>1121</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1193</v>
+        <v>1121</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>1195</v>
+        <v>1123</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1195</v>
+        <v>1123</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>1195</v>
+        <v>1123</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>1195</v>
+        <v>1123</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1196</v>
+        <v>1124</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
       <c r="Z143" s="1" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>1197</v>
+        <v>1125</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>1192</v>
+        <v>1120</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1198</v>
+        <v>1126</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1199</v>
+        <v>1127</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1199</v>
+        <v>1127</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1200</v>
+        <v>1128</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1201</v>
+        <v>1129</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1201</v>
+        <v>1129</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1202</v>
+        <v>1130</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1202</v>
+        <v>1130</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1203</v>
+        <v>1131</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1204</v>
+        <v>1132</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1204</v>
+        <v>1132</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>1204</v>
+        <v>1132</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1204</v>
+        <v>1132</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1205</v>
+        <v>1133</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1205</v>
+        <v>1133</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>1205</v>
+        <v>1133</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1" t="s">
-        <v>1199</v>
+        <v>1127</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>1199</v>
+        <v>1127</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>1206</v>
+        <v>1134</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>1201</v>
+        <v>1129</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>1199</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1207</v>
+        <v>1135</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1208</v>
+        <v>1136</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1208</v>
+        <v>1136</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1209</v>
+        <v>1137</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1210</v>
+        <v>1138</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1210</v>
+        <v>1138</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1211</v>
+        <v>1139</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1211</v>
+        <v>1139</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1213</v>
+        <v>1141</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1213</v>
+        <v>1141</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>1213</v>
+        <v>1141</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>1213</v>
+        <v>1141</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1214</v>
+        <v>1142</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1214</v>
+        <v>1142</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1214</v>
+        <v>1142</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1" t="s">
-        <v>1208</v>
+        <v>1136</v>
       </c>
       <c r="Z145" s="1" t="s">
-        <v>1208</v>
+        <v>1136</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>1215</v>
+        <v>1143</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>1210</v>
+        <v>1138</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>1208</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1216</v>
+        <v>1144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1217</v>
+        <v>1145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1217</v>
+        <v>1145</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1218</v>
+        <v>1146</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1219</v>
+        <v>1147</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1219</v>
+        <v>1147</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1220</v>
+        <v>1148</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1220</v>
+        <v>1148</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>1222</v>
+        <v>1150</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1222</v>
+        <v>1150</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1222</v>
+        <v>1150</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1222</v>
+        <v>1150</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1223</v>
+        <v>1151</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1223</v>
+        <v>1151</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1223</v>
+        <v>1151</v>
       </c>
       <c r="W146" s="1"/>
       <c r="Y146" s="1" t="s">
-        <v>1217</v>
+        <v>1145</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>1217</v>
+        <v>1145</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1224</v>
+        <v>1152</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>1219</v>
+        <v>1147</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>1217</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1225</v>
+        <v>1153</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1226</v>
+        <v>1154</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1226</v>
+        <v>1154</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1227</v>
+        <v>1155</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1228</v>
+        <v>1156</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1228</v>
+        <v>1156</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1229</v>
+        <v>1157</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1229</v>
+        <v>1157</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1230</v>
+        <v>1158</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>1231</v>
+        <v>1159</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1231</v>
+        <v>1159</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>1231</v>
+        <v>1159</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1231</v>
+        <v>1159</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1232</v>
+        <v>1160</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1232</v>
+        <v>1160</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1232</v>
+        <v>1160</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1" t="s">
-        <v>1226</v>
+        <v>1154</v>
       </c>
       <c r="Z147" s="1" t="s">
-        <v>1226</v>
+        <v>1154</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>1233</v>
+        <v>1161</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>1228</v>
+        <v>1156</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>1226</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1234</v>
+        <v>1162</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1235</v>
+        <v>1163</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1235</v>
+        <v>1163</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1236</v>
+        <v>1164</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1237</v>
+        <v>1165</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1237</v>
+        <v>1165</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1238</v>
+        <v>1166</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1238</v>
+        <v>1166</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1239</v>
+        <v>1167</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1240</v>
+        <v>1168</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1240</v>
+        <v>1168</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1240</v>
+        <v>1168</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>1240</v>
+        <v>1168</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1241</v>
+        <v>1169</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1241</v>
+        <v>1169</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1241</v>
+        <v>1169</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1" t="s">
-        <v>1235</v>
+        <v>1163</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>1235</v>
+        <v>1163</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>1242</v>
+        <v>1170</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>1237</v>
+        <v>1165</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>1235</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1243</v>
+        <v>1171</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>168</v>
@@ -17090,19 +17090,19 @@
         <v>168</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1244</v>
+        <v>1172</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1246</v>
+        <v>1174</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1246</v>
+        <v>1174</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>168</v>
@@ -17114,51 +17114,51 @@
         <v>168</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>168</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1248</v>
+        <v>1176</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1249</v>
+        <v>1177</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>1248</v>
+        <v>1176</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1249</v>
+        <v>1177</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1250</v>
+        <v>1178</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="Z149" s="1" t="s">
-        <v>1244</v>
+        <v>1172</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>1251</v>
+        <v>1179</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>1247</v>
+        <v>1175</v>
       </c>
       <c r="AC149" s="1" t="s">
         <v>168</v>
@@ -17166,7 +17166,7 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1252</v>
+        <v>1180</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>810</v>
@@ -17175,19 +17175,19 @@
         <v>810</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1253</v>
+        <v>1181</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1255</v>
+        <v>1183</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1255</v>
+        <v>1183</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>810</v>
@@ -17211,25 +17211,25 @@
         <v>810</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1257</v>
+        <v>1185</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
@@ -17240,10 +17240,10 @@
         <v>810</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>1258</v>
+        <v>1186</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>1254</v>
+        <v>1182</v>
       </c>
       <c r="AC150" s="1" t="s">
         <v>810</v>
@@ -17251,172 +17251,172 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1259</v>
+        <v>1187</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1261</v>
+        <v>1189</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1262</v>
+        <v>1190</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1262</v>
+        <v>1190</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1263</v>
+        <v>1191</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1263</v>
+        <v>1191</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1265</v>
+        <v>1193</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1265</v>
+        <v>1193</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>1267</v>
+        <v>1195</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1267</v>
+        <v>1195</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1267</v>
+        <v>1195</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>1261</v>
+        <v>1189</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>1268</v>
+        <v>1196</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>1264</v>
+        <v>1192</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>1260</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1269</v>
+        <v>1197</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1271</v>
+        <v>1199</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1272</v>
+        <v>1200</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1272</v>
+        <v>1200</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1273</v>
+        <v>1201</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1275</v>
+        <v>1203</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1274</v>
+        <v>1202</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>1276</v>
+        <v>1204</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>1272</v>
+        <v>1200</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>1270</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/VerbConjugation/XLSX/ArmStemmed.xlsx
+++ b/VerbConjugation/XLSX/ArmStemmed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D1F56-0BD8-8F41-89C4-8D2B121B7A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8E966D-FA7E-C945-92BB-B4DC59C65437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
+    <workbookView xWindow="-1320" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1364">
   <si>
     <t>Class</t>
   </si>
@@ -4118,6 +4118,15 @@
   </si>
   <si>
     <t>կ{Xprs}ային</t>
+  </si>
+  <si>
+    <t>արժեմ</t>
+  </si>
+  <si>
+    <t>to be worth</t>
+  </si>
+  <si>
+    <t>{X} = արժ-</t>
   </si>
 </sst>
 </file>
@@ -4476,15 +4485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813AD7CC-5CCE-0E48-8BF9-C55A8D719B93}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P134" workbookViewId="0">
-      <selection activeCell="W146" sqref="W146"/>
+    <sheetView tabSelected="1" topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>8</v>
@@ -4570,10 +4579,13 @@
         <v>8</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -4659,10 +4671,13 @@
         <v>8</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4736,13 +4751,13 @@
         <v>15</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>14</v>
@@ -4750,8 +4765,11 @@
       <c r="AC3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4825,22 +4843,25 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -4914,22 +4935,25 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,22 +5027,25 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -5087,23 +5114,24 @@
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -5154,11 +5182,12 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -5210,8 +5239,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -5280,23 +5310,24 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -5365,23 +5396,24 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AA11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -5450,23 +5482,24 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AA12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -5535,23 +5568,24 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AA13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -5620,23 +5654,24 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AA14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
@@ -5705,23 +5740,24 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AA15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -5790,23 +5826,24 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>176</v>
       </c>
@@ -5880,22 +5917,25 @@
         <v>183</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>177</v>
       </c>
       <c r="AA17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>185</v>
       </c>
@@ -5969,22 +6009,25 @@
         <v>192</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AA18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
@@ -6058,22 +6101,25 @@
         <v>168</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>195</v>
       </c>
       <c r="AA19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -6147,22 +6193,25 @@
         <v>208</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>202</v>
       </c>
       <c r="AA20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
@@ -6236,22 +6285,25 @@
         <v>217</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>211</v>
       </c>
       <c r="AA21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>219</v>
       </c>
@@ -6325,22 +6377,25 @@
         <v>226</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AA22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>228</v>
       </c>
@@ -6414,22 +6469,25 @@
         <v>235</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AA23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>237</v>
       </c>
@@ -6503,22 +6561,25 @@
         <v>244</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AA24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB24" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>246</v>
       </c>
@@ -6592,22 +6653,25 @@
         <v>253</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>247</v>
       </c>
       <c r="AA25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
@@ -6681,22 +6745,25 @@
         <v>262</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>256</v>
       </c>
       <c r="AA26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>264</v>
       </c>
@@ -6770,22 +6837,25 @@
         <v>271</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>265</v>
       </c>
       <c r="AA27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>273</v>
       </c>
@@ -6859,22 +6929,25 @@
         <v>280</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>274</v>
       </c>
       <c r="AA28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB28" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>282</v>
       </c>
@@ -6948,22 +7021,25 @@
         <v>289</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>283</v>
       </c>
       <c r="AA29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AC29" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>291</v>
       </c>
@@ -7037,22 +7113,25 @@
         <v>298</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>292</v>
       </c>
       <c r="AA30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>300</v>
       </c>
@@ -7126,22 +7205,25 @@
         <v>307</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>301</v>
       </c>
       <c r="AA31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>309</v>
       </c>
@@ -7215,22 +7297,25 @@
         <v>316</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AA32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>318</v>
       </c>
@@ -7304,22 +7389,25 @@
         <v>325</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AA33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB33" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>327</v>
       </c>
@@ -7387,28 +7475,31 @@
         <v>332</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>315</v>
+        <v>904</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>316</v>
+        <v>903</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>328</v>
+        <v>903</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>328</v>
       </c>
       <c r="AA34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB34" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
@@ -7482,22 +7573,25 @@
         <v>341</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>335</v>
       </c>
       <c r="AA35" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>343</v>
       </c>
@@ -7571,22 +7665,25 @@
         <v>350</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>344</v>
       </c>
       <c r="AA36" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB36" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>352</v>
       </c>
@@ -7660,22 +7757,25 @@
         <v>359</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>353</v>
       </c>
       <c r="AA37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB37" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>361</v>
       </c>
@@ -7749,22 +7849,25 @@
         <v>368</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>362</v>
       </c>
       <c r="AA38" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>370</v>
       </c>
@@ -7838,22 +7941,25 @@
         <v>377</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>371</v>
       </c>
       <c r="AA39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB39" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>379</v>
       </c>
@@ -7927,22 +8033,25 @@
         <v>368</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>380</v>
       </c>
       <c r="AA40" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB40" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AC40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>386</v>
       </c>
@@ -8010,23 +8119,23 @@
         <v>393</v>
       </c>
       <c r="W41" s="1"/>
-      <c r="Y41" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="Z41" s="1" t="s">
         <v>387</v>
       </c>
       <c r="AA41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>395</v>
       </c>
@@ -8094,23 +8203,23 @@
         <v>402</v>
       </c>
       <c r="W42" s="1"/>
-      <c r="Y42" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="Z42" s="1" t="s">
         <v>396</v>
       </c>
       <c r="AA42" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB42" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AC42" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>404</v>
       </c>
@@ -8179,23 +8288,24 @@
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
         <v>405</v>
       </c>
       <c r="AA43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB43" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>413</v>
       </c>
@@ -8263,23 +8373,23 @@
         <v>420</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="Y44" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="Z44" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AA44" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB44" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>422</v>
       </c>
@@ -8347,23 +8457,23 @@
         <v>429</v>
       </c>
       <c r="W45" s="1"/>
-      <c r="Y45" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="Z45" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AA45" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB45" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>431</v>
       </c>
@@ -8431,23 +8541,23 @@
         <v>438</v>
       </c>
       <c r="W46" s="1"/>
-      <c r="Y46" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="Z46" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AA46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB46" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AC46" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>440</v>
       </c>
@@ -8515,23 +8625,23 @@
         <v>447</v>
       </c>
       <c r="W47" s="1"/>
-      <c r="Y47" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="Z47" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AA47" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB47" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AC47" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>449</v>
       </c>
@@ -8599,23 +8709,23 @@
         <v>456</v>
       </c>
       <c r="W48" s="1"/>
-      <c r="Y48" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="Z48" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AA48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB48" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AD48" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>458</v>
       </c>
@@ -8683,23 +8793,23 @@
         <v>465</v>
       </c>
       <c r="W49" s="1"/>
-      <c r="Y49" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="Z49" s="1" t="s">
         <v>459</v>
       </c>
       <c r="AA49" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB49" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AD49" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>467</v>
       </c>
@@ -8767,23 +8877,23 @@
         <v>474</v>
       </c>
       <c r="W50" s="1"/>
-      <c r="Y50" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="Z50" s="1" t="s">
         <v>468</v>
       </c>
       <c r="AA50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AD50" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
@@ -8851,23 +8961,23 @@
         <v>483</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="Y51" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="Z51" s="1" t="s">
         <v>477</v>
       </c>
       <c r="AA51" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB51" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>485</v>
       </c>
@@ -8935,23 +9045,23 @@
         <v>492</v>
       </c>
       <c r="W52" s="1"/>
-      <c r="Y52" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="Z52" s="1" t="s">
         <v>486</v>
       </c>
       <c r="AA52" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB52" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>494</v>
       </c>
@@ -9019,23 +9129,23 @@
         <v>501</v>
       </c>
       <c r="W53" s="1"/>
-      <c r="Y53" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="Z53" s="1" t="s">
         <v>495</v>
       </c>
       <c r="AA53" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB53" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AC53" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AD53" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>503</v>
       </c>
@@ -9103,23 +9213,23 @@
         <v>510</v>
       </c>
       <c r="W54" s="1"/>
-      <c r="Y54" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="Z54" s="1" t="s">
         <v>504</v>
       </c>
       <c r="AA54" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB54" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>512</v>
       </c>
@@ -9187,23 +9297,23 @@
         <v>519</v>
       </c>
       <c r="W55" s="1"/>
-      <c r="Y55" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="Z55" s="1" t="s">
         <v>513</v>
       </c>
       <c r="AA55" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB55" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AC55" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>521</v>
       </c>
@@ -9271,23 +9381,23 @@
         <v>528</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="Y56" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="Z56" s="1" t="s">
         <v>522</v>
       </c>
       <c r="AA56" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB56" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>530</v>
       </c>
@@ -9355,23 +9465,23 @@
         <v>537</v>
       </c>
       <c r="W57" s="1"/>
-      <c r="Y57" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="Z57" s="1" t="s">
         <v>531</v>
       </c>
       <c r="AA57" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB57" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>539</v>
       </c>
@@ -9439,23 +9549,23 @@
         <v>546</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="Y58" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="Z58" s="1" t="s">
         <v>540</v>
       </c>
       <c r="AA58" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB58" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="AC58" s="1" t="s">
+      <c r="AD58" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>548</v>
       </c>
@@ -9523,23 +9633,23 @@
         <v>555</v>
       </c>
       <c r="W59" s="1"/>
-      <c r="Y59" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="Z59" s="1" t="s">
         <v>549</v>
       </c>
       <c r="AA59" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB59" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AD59" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>557</v>
       </c>
@@ -9607,23 +9717,23 @@
         <v>564</v>
       </c>
       <c r="W60" s="1"/>
-      <c r="Y60" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="Z60" s="1" t="s">
         <v>558</v>
       </c>
       <c r="AA60" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB60" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="AC60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>566</v>
       </c>
@@ -9691,23 +9801,23 @@
         <v>573</v>
       </c>
       <c r="W61" s="1"/>
-      <c r="Y61" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="Z61" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AA61" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB61" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>575</v>
       </c>
@@ -9775,23 +9885,23 @@
         <v>582</v>
       </c>
       <c r="W62" s="1"/>
-      <c r="Y62" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="Z62" s="1" t="s">
         <v>576</v>
       </c>
       <c r="AA62" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB62" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AC62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>584</v>
       </c>
@@ -9859,23 +9969,23 @@
         <v>591</v>
       </c>
       <c r="W63" s="1"/>
-      <c r="Y63" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="Z63" s="1" t="s">
         <v>585</v>
       </c>
       <c r="AA63" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB63" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>593</v>
       </c>
@@ -9943,23 +10053,23 @@
         <v>600</v>
       </c>
       <c r="W64" s="1"/>
-      <c r="Y64" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="Z64" s="1" t="s">
         <v>594</v>
       </c>
       <c r="AA64" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB64" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="AC64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>602</v>
       </c>
@@ -10027,23 +10137,23 @@
         <v>607</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="Y65" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="Z65" s="1" t="s">
         <v>603</v>
       </c>
       <c r="AA65" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB65" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="AC65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>610</v>
       </c>
@@ -10111,23 +10221,23 @@
         <v>615</v>
       </c>
       <c r="W66" s="1"/>
-      <c r="Y66" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="Z66" s="1" t="s">
         <v>611</v>
       </c>
       <c r="AA66" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB66" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>618</v>
       </c>
@@ -10195,23 +10305,23 @@
         <v>623</v>
       </c>
       <c r="W67" s="1"/>
-      <c r="Y67" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="Z67" s="1" t="s">
         <v>619</v>
       </c>
       <c r="AA67" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB67" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AD67" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>626</v>
       </c>
@@ -10279,23 +10389,23 @@
         <v>631</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="Y68" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="Z68" s="1" t="s">
         <v>627</v>
       </c>
       <c r="AA68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB68" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="AC68" s="1" t="s">
+      <c r="AD68" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>634</v>
       </c>
@@ -10363,23 +10473,23 @@
         <v>639</v>
       </c>
       <c r="W69" s="1"/>
-      <c r="Y69" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Z69" s="1" t="s">
         <v>635</v>
       </c>
       <c r="AA69" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB69" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>642</v>
       </c>
@@ -10447,23 +10557,23 @@
         <v>647</v>
       </c>
       <c r="W70" s="1"/>
-      <c r="Y70" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="Z70" s="1" t="s">
         <v>643</v>
       </c>
       <c r="AA70" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB70" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AC70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>650</v>
       </c>
@@ -10532,23 +10642,24 @@
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1" t="s">
-        <v>1215</v>
-      </c>
+      <c r="Y71" s="1"/>
       <c r="Z71" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="AA71" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AB71" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AC71" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="AC71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>651</v>
       </c>
@@ -10617,23 +10728,24 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1" t="s">
-        <v>1205</v>
-      </c>
+      <c r="Y72" s="1"/>
       <c r="Z72" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="AA72" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AB72" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="AB72" s="1" t="s">
+      <c r="AC72" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>652</v>
       </c>
@@ -10702,23 +10814,24 @@
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1" t="s">
-        <v>1207</v>
-      </c>
+      <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="AA73" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AB73" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AC73" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AD73" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>653</v>
       </c>
@@ -10787,23 +10900,24 @@
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1" t="s">
-        <v>1209</v>
-      </c>
+      <c r="Y74" s="1"/>
       <c r="Z74" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="AA74" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AB74" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AC74" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>654</v>
       </c>
@@ -10872,23 +10986,24 @@
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1" t="s">
-        <v>1211</v>
-      </c>
+      <c r="Y75" s="1"/>
       <c r="Z75" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="AA75" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AB75" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="AC75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>655</v>
       </c>
@@ -10957,23 +11072,24 @@
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1" t="s">
-        <v>1213</v>
-      </c>
+      <c r="Y76" s="1"/>
       <c r="Z76" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="AA76" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AB76" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AC76" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>656</v>
       </c>
@@ -11041,23 +11157,23 @@
         <v>661</v>
       </c>
       <c r="W77" s="1"/>
-      <c r="Y77" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="Z77" s="1" t="s">
         <v>657</v>
       </c>
       <c r="AA77" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB77" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AC77" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>664</v>
       </c>
@@ -11125,23 +11241,23 @@
         <v>669</v>
       </c>
       <c r="W78" s="1"/>
-      <c r="Y78" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="Z78" s="1" t="s">
         <v>665</v>
       </c>
       <c r="AA78" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB78" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>672</v>
       </c>
@@ -11209,23 +11325,23 @@
         <v>677</v>
       </c>
       <c r="W79" s="1"/>
-      <c r="Y79" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="Z79" s="1" t="s">
         <v>673</v>
       </c>
       <c r="AA79" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB79" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AC79" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AD79" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>680</v>
       </c>
@@ -11293,23 +11409,23 @@
         <v>631</v>
       </c>
       <c r="W80" s="1"/>
-      <c r="Y80" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="Z80" s="1" t="s">
         <v>627</v>
       </c>
       <c r="AA80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB80" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="AC80" s="1" t="s">
+      <c r="AD80" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>681</v>
       </c>
@@ -11377,23 +11493,23 @@
         <v>639</v>
       </c>
       <c r="W81" s="1"/>
-      <c r="Y81" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Z81" s="1" t="s">
         <v>635</v>
       </c>
       <c r="AA81" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB81" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="AC81" s="1" t="s">
+      <c r="AD81" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>682</v>
       </c>
@@ -11461,23 +11577,23 @@
         <v>647</v>
       </c>
       <c r="W82" s="1"/>
-      <c r="Y82" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="Z82" s="1" t="s">
         <v>643</v>
       </c>
       <c r="AA82" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB82" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AC82" s="1" t="s">
+      <c r="AD82" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>683</v>
       </c>
@@ -11546,23 +11662,24 @@
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1" t="s">
-        <v>1217</v>
-      </c>
+      <c r="Y83" s="1"/>
       <c r="Z83" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="AA83" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AB83" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="AC83" s="1" t="s">
+      <c r="AD83" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>684</v>
       </c>
@@ -11631,23 +11748,24 @@
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1" t="s">
-        <v>1219</v>
-      </c>
+      <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="AA84" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AB84" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>685</v>
       </c>
@@ -11716,23 +11834,24 @@
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1" t="s">
-        <v>1221</v>
-      </c>
+      <c r="Y85" s="1"/>
       <c r="Z85" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="AA85" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AB85" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AC85" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="AC85" s="1" t="s">
+      <c r="AD85" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>686</v>
       </c>
@@ -11801,23 +11920,24 @@
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1" t="s">
-        <v>1223</v>
-      </c>
+      <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="AA86" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AB86" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="AB86" s="1" t="s">
+      <c r="AC86" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="AC86" s="1" t="s">
+      <c r="AD86" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>687</v>
       </c>
@@ -11886,23 +12006,24 @@
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1" t="s">
-        <v>1225</v>
-      </c>
+      <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="AA87" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AB87" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="AB87" s="1" t="s">
+      <c r="AC87" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>688</v>
       </c>
@@ -11971,23 +12092,24 @@
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1" t="s">
-        <v>1227</v>
-      </c>
+      <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="AA88" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AB88" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="AC88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>689</v>
       </c>
@@ -12056,23 +12178,24 @@
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AA89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB89" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>697</v>
       </c>
@@ -12141,23 +12264,24 @@
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
         <v>306</v>
       </c>
       <c r="AA90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="AC90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>705</v>
       </c>
@@ -12226,23 +12350,24 @@
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1" t="s">
-        <v>706</v>
-      </c>
+      <c r="Y91" s="1"/>
       <c r="Z91" s="1" t="s">
         <v>706</v>
       </c>
       <c r="AA91" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB91" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AC91" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="AC91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>714</v>
       </c>
@@ -12311,23 +12436,24 @@
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="Y92" s="1"/>
       <c r="Z92" s="1" t="s">
         <v>207</v>
       </c>
       <c r="AA92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB92" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="AB92" s="1" t="s">
+      <c r="AC92" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="AC92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>722</v>
       </c>
@@ -12396,23 +12522,24 @@
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y93" s="1"/>
       <c r="Z93" s="1" t="s">
         <v>216</v>
       </c>
       <c r="AA93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB93" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AC93" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="AC93" s="1" t="s">
+      <c r="AD93" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>730</v>
       </c>
@@ -12481,23 +12608,24 @@
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AA94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB94" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AC94" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>738</v>
       </c>
@@ -12566,23 +12694,24 @@
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="Y95" s="1"/>
       <c r="Z95" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AA95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB95" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AD95" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>746</v>
       </c>
@@ -12651,23 +12780,24 @@
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="Y96" s="1"/>
       <c r="Z96" s="1" t="s">
         <v>358</v>
       </c>
       <c r="AA96" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB96" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>754</v>
       </c>
@@ -12736,23 +12866,24 @@
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="Y97" s="1"/>
       <c r="Z97" s="1" t="s">
         <v>755</v>
       </c>
       <c r="AA97" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB97" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="AB97" s="1" t="s">
+      <c r="AC97" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="AC97" s="1" t="s">
+      <c r="AD97" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>763</v>
       </c>
@@ -12821,23 +12952,24 @@
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="1" t="s">
         <v>261</v>
       </c>
       <c r="AA98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB98" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AC98" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="AC98" s="1" t="s">
+      <c r="AD98" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>771</v>
       </c>
@@ -12906,23 +13038,24 @@
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="Y99" s="1"/>
       <c r="Z99" s="1" t="s">
         <v>270</v>
       </c>
       <c r="AA99" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB99" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AC99" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="AC99" s="1" t="s">
+      <c r="AD99" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>779</v>
       </c>
@@ -12991,23 +13124,24 @@
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
         <v>279</v>
       </c>
       <c r="AA100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB100" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AC100" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="AC100" s="1" t="s">
+      <c r="AD100" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>787</v>
       </c>
@@ -13076,23 +13210,24 @@
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
         <v>183</v>
       </c>
       <c r="AA101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB101" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="AB101" s="1" t="s">
+      <c r="AC101" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AD101" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>794</v>
       </c>
@@ -13161,23 +13296,24 @@
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="Y102" s="1"/>
       <c r="Z102" s="1" t="s">
         <v>192</v>
       </c>
       <c r="AA102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB102" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="AB102" s="1" t="s">
+      <c r="AC102" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="AC102" s="1" t="s">
+      <c r="AD102" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>801</v>
       </c>
@@ -13246,23 +13382,24 @@
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB103" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AB103" s="1" t="s">
+      <c r="AC103" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AC103" s="1" t="s">
+      <c r="AD103" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>802</v>
       </c>
@@ -13331,23 +13468,24 @@
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
         <v>208</v>
       </c>
       <c r="AA104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB104" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="AB104" s="1" t="s">
+      <c r="AC104" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="AC104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>809</v>
       </c>
@@ -13416,23 +13554,24 @@
       </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105" s="1" t="s">
-        <v>810</v>
-      </c>
+      <c r="Y105" s="1"/>
       <c r="Z105" s="1" t="s">
         <v>810</v>
       </c>
       <c r="AA105" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB105" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="AB105" s="1" t="s">
+      <c r="AC105" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>817</v>
       </c>
@@ -13501,23 +13640,24 @@
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y106" s="1"/>
       <c r="Z106" s="1" t="s">
         <v>226</v>
       </c>
       <c r="AA106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB106" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="AB106" s="1" t="s">
+      <c r="AC106" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="AC106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>824</v>
       </c>
@@ -13586,23 +13726,24 @@
       </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y107" s="1"/>
       <c r="Z107" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AA107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB107" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="AB107" s="1" t="s">
+      <c r="AC107" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="AC107" s="1" t="s">
+      <c r="AD107" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>831</v>
       </c>
@@ -13671,23 +13812,24 @@
       </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="Y108" s="1"/>
       <c r="Z108" s="1" t="s">
         <v>244</v>
       </c>
       <c r="AA108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB108" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="AB108" s="1" t="s">
+      <c r="AC108" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="AC108" s="1" t="s">
+      <c r="AD108" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>838</v>
       </c>
@@ -13756,23 +13898,24 @@
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="Y109" s="1"/>
       <c r="Z109" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AA109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB109" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="AB109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="AC109" s="1" t="s">
+      <c r="AD109" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>845</v>
       </c>
@@ -13841,23 +13984,24 @@
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
         <v>262</v>
       </c>
       <c r="AA110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB110" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="AB110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="AC110" s="1" t="s">
+      <c r="AD110" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>852</v>
       </c>
@@ -13926,23 +14070,24 @@
       </c>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="1" t="s">
-        <v>853</v>
-      </c>
+      <c r="Y111" s="1"/>
       <c r="Z111" s="1" t="s">
         <v>853</v>
       </c>
       <c r="AA111" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB111" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="AB111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="AC111" s="1" t="s">
+      <c r="AD111" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>860</v>
       </c>
@@ -14011,23 +14156,24 @@
       </c>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y112" s="1"/>
       <c r="Z112" s="1" t="s">
         <v>280</v>
       </c>
       <c r="AA112" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB112" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="AB112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="AC112" s="1" t="s">
+      <c r="AD112" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>867</v>
       </c>
@@ -14096,23 +14242,24 @@
       </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="Y113" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="Y113" s="1"/>
       <c r="Z113" s="1" t="s">
         <v>289</v>
       </c>
       <c r="AA113" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB113" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="AB113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AD113" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>874</v>
       </c>
@@ -14181,23 +14328,24 @@
       </c>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
-      <c r="Y114" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="Y114" s="1"/>
       <c r="Z114" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AA114" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB114" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="AB114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="AC114" s="1" t="s">
+      <c r="AD114" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>881</v>
       </c>
@@ -14266,23 +14414,24 @@
       </c>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="Y115" s="1"/>
       <c r="Z115" s="1" t="s">
         <v>307</v>
       </c>
       <c r="AA115" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB115" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="AB115" s="1" t="s">
+      <c r="AC115" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="AC115" s="1" t="s">
+      <c r="AD115" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>888</v>
       </c>
@@ -14351,23 +14500,24 @@
       </c>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="Y116" s="1"/>
       <c r="Z116" s="1" t="s">
         <v>316</v>
       </c>
       <c r="AA116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB116" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AB116" s="1" t="s">
+      <c r="AC116" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="AC116" s="1" t="s">
+      <c r="AD116" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>895</v>
       </c>
@@ -14436,23 +14586,24 @@
       </c>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
-      <c r="Y117" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="Y117" s="1"/>
       <c r="Z117" s="1" t="s">
         <v>325</v>
       </c>
       <c r="AA117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB117" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="AB117" s="1" t="s">
+      <c r="AC117" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="AC117" s="1" t="s">
+      <c r="AD117" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>902</v>
       </c>
@@ -14521,23 +14672,24 @@
       </c>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
-      <c r="Y118" s="1" t="s">
-        <v>903</v>
-      </c>
+      <c r="Y118" s="1"/>
       <c r="Z118" s="1" t="s">
         <v>903</v>
       </c>
       <c r="AA118" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB118" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="AB118" s="1" t="s">
+      <c r="AC118" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="AC118" s="1" t="s">
+      <c r="AD118" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>911</v>
       </c>
@@ -14606,23 +14758,24 @@
       </c>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
-      <c r="Y119" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="Y119" s="1"/>
       <c r="Z119" s="1" t="s">
         <v>341</v>
       </c>
       <c r="AA119" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB119" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="AB119" s="1" t="s">
+      <c r="AC119" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="AC119" s="1" t="s">
+      <c r="AD119" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>918</v>
       </c>
@@ -14691,23 +14844,24 @@
       </c>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
-      <c r="Y120" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="Y120" s="1"/>
       <c r="Z120" s="1" t="s">
         <v>350</v>
       </c>
       <c r="AA120" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB120" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="AB120" s="1" t="s">
+      <c r="AC120" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="AC120" s="1" t="s">
+      <c r="AD120" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>925</v>
       </c>
@@ -14776,23 +14930,24 @@
       </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
-      <c r="Y121" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="Y121" s="1"/>
       <c r="Z121" s="1" t="s">
         <v>359</v>
       </c>
       <c r="AA121" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB121" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="AB121" s="1" t="s">
+      <c r="AC121" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="AC121" s="1" t="s">
+      <c r="AD121" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>932</v>
       </c>
@@ -14861,23 +15016,24 @@
       </c>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
-      <c r="Y122" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="Y122" s="1"/>
       <c r="Z122" s="1" t="s">
         <v>368</v>
       </c>
       <c r="AA122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB122" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="AB122" s="1" t="s">
+      <c r="AC122" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="AC122" s="1" t="s">
+      <c r="AD122" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>939</v>
       </c>
@@ -14946,23 +15102,24 @@
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
-      <c r="Y123" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="Y123" s="1"/>
       <c r="Z123" s="1" t="s">
         <v>377</v>
       </c>
       <c r="AA123" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB123" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="AB123" s="1" t="s">
+      <c r="AC123" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="AC123" s="1" t="s">
+      <c r="AD123" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>946</v>
       </c>
@@ -15031,23 +15188,24 @@
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="1" t="s">
-        <v>947</v>
-      </c>
+      <c r="Y124" s="1"/>
       <c r="Z124" s="1" t="s">
         <v>947</v>
       </c>
       <c r="AA124" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB124" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="AB124" s="1" t="s">
+      <c r="AC124" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="AC124" s="1" t="s">
+      <c r="AD124" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>955</v>
       </c>
@@ -15116,23 +15274,24 @@
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="1" t="s">
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="Z125" s="1" t="s">
+      <c r="AA125" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AB125" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="AB125" s="1" t="s">
+      <c r="AC125" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="AC125" s="1" t="s">
+      <c r="AD125" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>964</v>
       </c>
@@ -15201,23 +15360,24 @@
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
-      <c r="Y126" s="1" t="s">
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="Z126" s="1" t="s">
+      <c r="AA126" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AB126" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="AB126" s="1" t="s">
+      <c r="AC126" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="AC126" s="1" t="s">
+      <c r="AD126" s="1" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>973</v>
       </c>
@@ -15286,23 +15446,24 @@
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
-      <c r="Y127" s="1" t="s">
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="Z127" s="1" t="s">
+      <c r="AA127" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="AA127" s="1" t="s">
+      <c r="AB127" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="AB127" s="1" t="s">
+      <c r="AC127" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="AC127" s="1" t="s">
+      <c r="AD127" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>982</v>
       </c>
@@ -15370,23 +15531,23 @@
         <v>989</v>
       </c>
       <c r="W128" s="1"/>
-      <c r="Y128" s="1" t="s">
+      <c r="Z128" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="Z128" s="1" t="s">
+      <c r="AA128" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AA128" s="1" t="s">
+      <c r="AB128" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="AB128" s="1" t="s">
+      <c r="AC128" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="AC128" s="1" t="s">
+      <c r="AD128" s="1" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>991</v>
       </c>
@@ -15455,23 +15616,24 @@
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="1" t="s">
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="Z129" s="1" t="s">
+      <c r="AA129" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="AA129" s="1" t="s">
+      <c r="AB129" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="AB129" s="1" t="s">
+      <c r="AC129" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="AC129" s="1" t="s">
+      <c r="AD129" s="1" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1000</v>
       </c>
@@ -15540,23 +15702,24 @@
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="1" t="s">
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="Z130" s="1" t="s">
+      <c r="AA130" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AA130" s="1" t="s">
+      <c r="AB130" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="AB130" s="1" t="s">
+      <c r="AC130" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="AC130" s="1" t="s">
+      <c r="AD130" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1009</v>
       </c>
@@ -15625,23 +15788,24 @@
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
-      <c r="Y131" s="1" t="s">
-        <v>1010</v>
-      </c>
+      <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="AA131" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AB131" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="AB131" s="1" t="s">
+      <c r="AC131" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="AC131" s="1" t="s">
+      <c r="AD131" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1018</v>
       </c>
@@ -15710,23 +15874,24 @@
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="1" t="s">
-        <v>1019</v>
-      </c>
+      <c r="Y132" s="1"/>
       <c r="Z132" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="AA132" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AB132" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="AB132" s="1" t="s">
+      <c r="AC132" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="AC132" s="1" t="s">
+      <c r="AD132" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1027</v>
       </c>
@@ -15795,23 +15960,24 @@
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1" t="s">
-        <v>1028</v>
-      </c>
+      <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="AA133" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AB133" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="AB133" s="1" t="s">
+      <c r="AC133" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="AC133" s="1" t="s">
+      <c r="AD133" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1036</v>
       </c>
@@ -15879,23 +16045,23 @@
         <v>1043</v>
       </c>
       <c r="W134" s="1"/>
-      <c r="Y134" s="1" t="s">
-        <v>1037</v>
-      </c>
       <c r="Z134" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="AA134" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AB134" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="AB134" s="1" t="s">
+      <c r="AC134" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="AC134" s="1" t="s">
+      <c r="AD134" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1045</v>
       </c>
@@ -15964,23 +16130,24 @@
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
-      <c r="Y135" s="1" t="s">
-        <v>1046</v>
-      </c>
+      <c r="Y135" s="1"/>
       <c r="Z135" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="AA135" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AB135" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="AB135" s="1" t="s">
+      <c r="AC135" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AC135" s="1" t="s">
+      <c r="AD135" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1054</v>
       </c>
@@ -16049,23 +16216,24 @@
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1" t="s">
-        <v>1055</v>
-      </c>
+      <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="AA136" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AB136" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="AB136" s="1" t="s">
+      <c r="AC136" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="AC136" s="1" t="s">
+      <c r="AD136" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1063</v>
       </c>
@@ -16133,23 +16301,23 @@
         <v>1070</v>
       </c>
       <c r="W137" s="1"/>
-      <c r="Y137" s="1" t="s">
+      <c r="Z137" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="Z137" s="1" t="s">
+      <c r="AA137" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="AA137" s="1" t="s">
+      <c r="AB137" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="AB137" s="1" t="s">
+      <c r="AC137" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="AC137" s="1" t="s">
+      <c r="AD137" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1072</v>
       </c>
@@ -16217,23 +16385,23 @@
         <v>1079</v>
       </c>
       <c r="W138" s="1"/>
-      <c r="Y138" s="1" t="s">
+      <c r="Z138" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="Z138" s="1" t="s">
+      <c r="AA138" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="AA138" s="1" t="s">
+      <c r="AB138" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="AB138" s="1" t="s">
+      <c r="AC138" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="AC138" s="1" t="s">
+      <c r="AD138" s="1" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1081</v>
       </c>
@@ -16302,23 +16470,24 @@
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="1" t="s">
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="Z139" s="1" t="s">
+      <c r="AA139" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="AA139" s="1" t="s">
+      <c r="AB139" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="AB139" s="1" t="s">
+      <c r="AC139" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="AC139" s="1" t="s">
+      <c r="AD139" s="1" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1090</v>
       </c>
@@ -16386,23 +16555,23 @@
         <v>1097</v>
       </c>
       <c r="W140" s="1"/>
-      <c r="Y140" s="1" t="s">
+      <c r="Z140" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="Z140" s="1" t="s">
+      <c r="AA140" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AA140" s="1" t="s">
+      <c r="AB140" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="AB140" s="1" t="s">
+      <c r="AC140" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="AC140" s="1" t="s">
+      <c r="AD140" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1099</v>
       </c>
@@ -16470,23 +16639,23 @@
         <v>1106</v>
       </c>
       <c r="W141" s="1"/>
-      <c r="Y141" s="1" t="s">
+      <c r="Z141" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Z141" s="1" t="s">
+      <c r="AA141" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="AA141" s="1" t="s">
+      <c r="AB141" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="AB141" s="1" t="s">
+      <c r="AC141" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="AC141" s="1" t="s">
+      <c r="AD141" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1108</v>
       </c>
@@ -16554,23 +16723,23 @@
         <v>1115</v>
       </c>
       <c r="W142" s="1"/>
-      <c r="Y142" s="1" t="s">
+      <c r="Z142" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="Z142" s="1" t="s">
+      <c r="AA142" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="AA142" s="1" t="s">
+      <c r="AB142" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="AB142" s="1" t="s">
+      <c r="AC142" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AC142" s="1" t="s">
+      <c r="AD142" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1117</v>
       </c>
@@ -16639,23 +16808,24 @@
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-      <c r="Y143" s="1" t="s">
-        <v>1118</v>
-      </c>
+      <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="AA143" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AB143" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="AB143" s="1" t="s">
+      <c r="AC143" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="AC143" s="1" t="s">
+      <c r="AD143" s="1" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1126</v>
       </c>
@@ -16724,23 +16894,24 @@
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-      <c r="Y144" s="1" t="s">
-        <v>1127</v>
-      </c>
+      <c r="Y144" s="1"/>
       <c r="Z144" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="AA144" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AB144" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="AB144" s="1" t="s">
+      <c r="AC144" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="AC144" s="1" t="s">
+      <c r="AD144" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16809,23 +16980,24 @@
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="1" t="s">
-        <v>1136</v>
-      </c>
+      <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="AA145" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AB145" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="AB145" s="1" t="s">
+      <c r="AC145" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="AC145" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1144</v>
       </c>
@@ -16893,23 +17065,23 @@
         <v>1151</v>
       </c>
       <c r="W146" s="1"/>
-      <c r="Y146" s="1" t="s">
-        <v>1145</v>
-      </c>
       <c r="Z146" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="AA146" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AB146" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="AB146" s="1" t="s">
+      <c r="AC146" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="AC146" s="1" t="s">
+      <c r="AD146" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16978,23 +17150,24 @@
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
-      <c r="Y147" s="1" t="s">
-        <v>1154</v>
-      </c>
+      <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="AA147" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AB147" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="AB147" s="1" t="s">
+      <c r="AC147" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="AC147" s="1" t="s">
+      <c r="AD147" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1162</v>
       </c>
@@ -17063,23 +17236,24 @@
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
-      <c r="Y148" s="1" t="s">
-        <v>1163</v>
-      </c>
+      <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="AA148" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AB148" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="AB148" s="1" t="s">
+      <c r="AC148" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="AC148" s="1" t="s">
+      <c r="AD148" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1171</v>
       </c>
@@ -17148,23 +17322,24 @@
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1" t="s">
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="Z149" s="1" t="s">
+      <c r="AA149" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="AA149" s="1" t="s">
+      <c r="AB149" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="AB149" s="1" t="s">
+      <c r="AC149" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="AC149" s="1" t="s">
+      <c r="AD149" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1180</v>
       </c>
@@ -17233,23 +17408,24 @@
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
-      <c r="Y150" s="1" t="s">
-        <v>810</v>
-      </c>
+      <c r="Y150" s="1"/>
       <c r="Z150" s="1" t="s">
         <v>810</v>
       </c>
       <c r="AA150" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB150" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="AB150" s="1" t="s">
+      <c r="AC150" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="AC150" s="1" t="s">
+      <c r="AD150" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1187</v>
       </c>
@@ -17318,23 +17494,24 @@
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
-      <c r="Y151" s="1" t="s">
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="Z151" s="1" t="s">
+      <c r="AA151" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="AA151" s="1" t="s">
+      <c r="AB151" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="AB151" s="1" t="s">
+      <c r="AC151" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="AC151" s="1" t="s">
+      <c r="AD151" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1197</v>
       </c>
@@ -17403,19 +17580,20 @@
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
-      <c r="Y152" s="1" t="s">
-        <v>1198</v>
-      </c>
+      <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="AA152" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AB152" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="AB152" s="1" t="s">
+      <c r="AC152" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC152" s="1" t="s">
+      <c r="AD152" s="1" t="s">
         <v>1198</v>
       </c>
     </row>

--- a/VerbConjugation/XLSX/ArmStemmed.xlsx
+++ b/VerbConjugation/XLSX/ArmStemmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547E66E-C5EE-574B-A68F-988C0D9EC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A21C06-FD2E-6B4A-A19F-4CCB68426E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4021,42 +4021,6 @@
     <t>negative of periphrastic future 3PL</t>
   </si>
   <si>
-    <t>periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3PL</t>
-  </si>
-  <si>
     <t>synthetic future 1SG</t>
   </si>
   <si>
@@ -4093,40 +4057,76 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3PL</t>
+    <t>future in the past 1SG</t>
+  </si>
+  <si>
+    <t>future in the past 2SG</t>
+  </si>
+  <si>
+    <t>future in the past 3SG</t>
+  </si>
+  <si>
+    <t>future in the past 1PL</t>
+  </si>
+  <si>
+    <t>future in the past 2PL</t>
+  </si>
+  <si>
+    <t>future in the past 3PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 1SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 2SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 3SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 1PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 2PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 3PL</t>
+  </si>
+  <si>
+    <t>conditional past 1SG</t>
+  </si>
+  <si>
+    <t>conditional past 2SG</t>
+  </si>
+  <si>
+    <t>conditional past 3SG</t>
+  </si>
+  <si>
+    <t>conditional past 1PL</t>
+  </si>
+  <si>
+    <t>conditional past 2PL</t>
+  </si>
+  <si>
+    <t>conditional past 3PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 1SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 2SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 3SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 1PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 2PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 3PL</t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4488,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD152"/>
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>482</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>490</v>
@@ -14711,7 +14711,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>498</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>506</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>514</v>
@@ -14963,7 +14963,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>522</v>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>530</v>
@@ -15131,7 +15131,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>538</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>546</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>554</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>562</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>570</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>931</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>939</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>947</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>955</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>963</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>971</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>979</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>987</v>
@@ -16237,7 +16237,7 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>995</v>
@@ -16323,7 +16323,7 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1003</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1011</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1019</v>

--- a/VerbConjugation/XLSX/ArmStemmed.xlsx
+++ b/VerbConjugation/XLSX/ArmStemmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A21C06-FD2E-6B4A-A19F-4CCB68426E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57681BE5-8680-D943-9BE4-BE16EA343CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
+    <workbookView xWindow="8740" yWindow="620" windowWidth="28040" windowHeight="15440" xr2:uid="{F055E2B6-0EFD-A546-AE07-5A2384C15595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2566,9 +2566,6 @@
     <t>չ{Xprs}նան</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>{X}նայիմ</t>
   </si>
   <si>
@@ -2587,9 +2584,6 @@
     <t>{Xprs}նայիմ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>{X}նայիր</t>
   </si>
   <si>
@@ -2608,9 +2602,6 @@
     <t>{Xprs}նայիր</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>{X}նար</t>
   </si>
   <si>
@@ -2629,9 +2620,6 @@
     <t>{Xprs}նար</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>{X}նայինք</t>
   </si>
   <si>
@@ -2650,9 +2638,6 @@
     <t>{Xprs}նայինք</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>{X}նայիք</t>
   </si>
   <si>
@@ -2671,9 +2656,6 @@
     <t>{Xprs}նայիք</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>{X}ին</t>
   </si>
   <si>
@@ -2698,9 +2680,6 @@
     <t>{Xprs}նային</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>չ{X}նայիմ</t>
   </si>
   <si>
@@ -2719,9 +2698,6 @@
     <t>չ{Xprs}նայիմ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>չ{X}նայիր</t>
   </si>
   <si>
@@ -2740,9 +2716,6 @@
     <t>չ{Xprs}նայիր</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>չ{X}նար</t>
   </si>
   <si>
@@ -2761,9 +2734,6 @@
     <t>չ{Xprs}նար</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>չ{X}նայինք</t>
   </si>
   <si>
@@ -2782,9 +2752,6 @@
     <t>չ{Xprs}նայինք</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>չ{X}նայիք</t>
   </si>
   <si>
@@ -2803,9 +2770,6 @@
     <t>չ{Xprs}նայիք</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>չ{X}ին</t>
   </si>
   <si>
@@ -4057,42 +4021,6 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>future in the past 1SG</t>
-  </si>
-  <si>
-    <t>future in the past 2SG</t>
-  </si>
-  <si>
-    <t>future in the past 3SG</t>
-  </si>
-  <si>
-    <t>future in the past 1PL</t>
-  </si>
-  <si>
-    <t>future in the past 2PL</t>
-  </si>
-  <si>
-    <t>future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 3PL</t>
-  </si>
-  <si>
     <t>conditional past 1SG</t>
   </si>
   <si>
@@ -4127,6 +4055,78 @@
   </si>
   <si>
     <t>negative conditional past 3PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>past future 1SG</t>
+  </si>
+  <si>
+    <t>past future 2SG</t>
+  </si>
+  <si>
+    <t>past future 3SG</t>
+  </si>
+  <si>
+    <t>past future 1PL</t>
+  </si>
+  <si>
+    <t>past future 2PL</t>
+  </si>
+  <si>
+    <t>past future 3PL</t>
+  </si>
+  <si>
+    <t>negative past future 1SG</t>
+  </si>
+  <si>
+    <t>negative past future 2SG</t>
+  </si>
+  <si>
+    <t>negative past future 3SG</t>
+  </si>
+  <si>
+    <t>negative past future 1PL</t>
+  </si>
+  <si>
+    <t>negative past future 2PL</t>
+  </si>
+  <si>
+    <t>negative past future 3PL</t>
   </si>
 </sst>
 </file>
@@ -4488,7 +4488,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4843,7 +4843,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -4935,7 +4935,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -5027,7 +5027,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -7475,13 +7475,13 @@
         <v>332</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>328</v>
@@ -8560,85 +8560,85 @@
         <v>626</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>1222</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -8646,85 +8646,85 @@
         <v>627</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>1217</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -8732,85 +8732,85 @@
         <v>628</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>1218</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
@@ -8818,85 +8818,85 @@
         <v>629</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1219</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
@@ -8904,85 +8904,85 @@
         <v>630</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>1220</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
@@ -8990,85 +8990,85 @@
         <v>631</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1221</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -9580,85 +9580,85 @@
         <v>659</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>1223</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
@@ -9666,85 +9666,85 @@
         <v>660</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>1224</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
@@ -9752,85 +9752,85 @@
         <v>661</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>1225</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
@@ -9838,85 +9838,85 @@
         <v>662</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>1226</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
@@ -9924,85 +9924,85 @@
         <v>663</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
@@ -10010,85 +10010,85 @@
         <v>664</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>1228</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
@@ -12157,7 +12157,7 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>843</v>
+        <v>1340</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>289</v>
@@ -12169,58 +12169,58 @@
         <v>288</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="K89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="P89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="S89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="P89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="U89" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="V89" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="T89" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
@@ -12232,10 +12232,10 @@
         <v>289</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AD89" s="1" t="s">
         <v>289</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>850</v>
+        <v>1341</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>298</v>
@@ -12255,58 +12255,58 @@
         <v>297</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="K90" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="R90" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="T90" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="U90" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="V90" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
@@ -12318,10 +12318,10 @@
         <v>298</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AD90" s="1" t="s">
         <v>298</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>857</v>
+        <v>1342</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>307</v>
@@ -12341,58 +12341,58 @@
         <v>306</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="P91" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="R91" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="T91" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="U91" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="V91" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -12404,10 +12404,10 @@
         <v>307</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AD91" s="1" t="s">
         <v>307</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>864</v>
+        <v>1343</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>316</v>
@@ -12427,58 +12427,58 @@
         <v>315</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="T92" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="U92" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="V92" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
@@ -12490,10 +12490,10 @@
         <v>316</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AD92" s="1" t="s">
         <v>316</v>
@@ -12501,7 +12501,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>871</v>
+        <v>1344</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>325</v>
@@ -12513,58 +12513,58 @@
         <v>324</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
@@ -12576,10 +12576,10 @@
         <v>325</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="AD93" s="1" t="s">
         <v>325</v>
@@ -12587,93 +12587,93 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="P94" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="U94" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="V94" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>887</v>
+        <v>1346</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>341</v>
@@ -12685,58 +12685,58 @@
         <v>340</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
@@ -12748,10 +12748,10 @@
         <v>341</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="AD95" s="1" t="s">
         <v>341</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>894</v>
+        <v>1347</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>350</v>
@@ -12771,58 +12771,58 @@
         <v>349</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
@@ -12834,10 +12834,10 @@
         <v>350</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AD96" s="1" t="s">
         <v>350</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>901</v>
+        <v>1348</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>359</v>
@@ -12857,58 +12857,58 @@
         <v>358</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
@@ -12920,10 +12920,10 @@
         <v>359</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="AD97" s="1" t="s">
         <v>359</v>
@@ -12931,7 +12931,7 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>908</v>
+        <v>1349</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>368</v>
@@ -12943,58 +12943,58 @@
         <v>367</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
@@ -13006,10 +13006,10 @@
         <v>368</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AD98" s="1" t="s">
         <v>368</v>
@@ -13017,7 +13017,7 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>915</v>
+        <v>1350</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>377</v>
@@ -13029,58 +13029,58 @@
         <v>376</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
@@ -13092,10 +13092,10 @@
         <v>377</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AD99" s="1" t="s">
         <v>377</v>
@@ -13103,93 +13103,93 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>922</v>
+        <v>1351</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>168</v>
@@ -13198,19 +13198,19 @@
         <v>168</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>168</v>
@@ -13222,52 +13222,52 @@
         <v>168</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>168</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>168</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>786</v>
@@ -13284,19 +13284,19 @@
         <v>786</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>786</v>
@@ -13320,25 +13320,25 @@
         <v>786</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -13350,10 +13350,10 @@
         <v>786</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>786</v>
@@ -13361,179 +13361,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>386</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>394</v>
@@ -13701,7 +13701,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>402</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>410</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>418</v>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>426</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>434</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>442</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>450</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>458</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>466</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>474</v>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>482</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>490</v>
@@ -14711,7 +14711,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>498</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>506</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>514</v>
@@ -14963,7 +14963,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>522</v>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>530</v>
@@ -15131,7 +15131,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>538</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>546</v>
@@ -15299,7 +15299,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>554</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>562</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>570</v>
@@ -15551,2050 +15551,2050 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="W132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="W138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1352</v>
+        <v>1328</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="W141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1353</v>
+        <v>1329</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="W142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1354</v>
+        <v>1330</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1355</v>
+        <v>1331</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="W144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1356</v>
+        <v>1332</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="W145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1357</v>
+        <v>1333</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="W146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1358</v>
+        <v>1334</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1359</v>
+        <v>1335</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1360</v>
+        <v>1336</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="W150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
